--- a/neo4j-example/beijing-subway-2024/all.xlsx
+++ b/neo4j-example/beijing-subway-2024/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\neo4j-example\beijing-subway-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87FBCA7-6121-4BB3-94CD-AE5FC118FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F58180-1641-48A7-BFA6-7FA25F7963EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号线" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="16号线" sheetId="14" r:id="rId14"/>
     <sheet name="17号线" sheetId="15" r:id="rId15"/>
     <sheet name="19号线" sheetId="16" r:id="rId16"/>
-    <sheet name="大型机场线" sheetId="17" r:id="rId17"/>
+    <sheet name="大兴机场线" sheetId="17" r:id="rId17"/>
     <sheet name="西郊线" sheetId="18" r:id="rId18"/>
     <sheet name="S1线" sheetId="19" r:id="rId19"/>
     <sheet name="燕房线" sheetId="20" r:id="rId20"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="409">
   <si>
     <t>古城</t>
   </si>
@@ -1240,6 +1240,74 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积水潭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西直门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火器营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴沟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,246 +1633,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1921</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E43" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>古城,八角游乐园,1921,1号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1953</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>八角游乐园,八宝山,1953,1号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1479</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>八宝山,玉泉路,1479,1号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1810</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>玉泉路,五棵松,1810,1号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1778</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>五棵松,万寿路,1778,1号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1313</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>万寿路,公主坟,1313,1号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1172</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>公主坟,军事博物馆,1172,1号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1166</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>军事博物馆,木樨地,1166,1号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1291</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>木樨地,南礼士路,1291,1号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>424</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>南礼士路,复兴门,424,1号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1596</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>复兴门,西单,1596,1号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1217</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>西单,天安门西,1217,1号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>925</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>天安门西,天安门东,925,1号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>852</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>天安门东,王府井,852,1号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>774</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>王府井,东单,774,1号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1230</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>东单,建国门,1230,1号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1377</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>建国门,永安里,1377,1号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>790</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>永安里,国贸,790,1号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1385</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>国贸,大望路,1385,1号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1673</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>大望路,四惠,1673,1号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1714</v>
+      </c>
+      <c r="D22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>四惠,四惠东,1714,1号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1921</v>
+      </c>
+      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>八角游乐园,古城,1921,1号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1953</v>
+      </c>
+      <c r="D24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>八宝山,八角游乐园,1953,1号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1479</v>
+      </c>
+      <c r="D25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>玉泉路,八宝山,1479,1号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1810</v>
+      </c>
+      <c r="D26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>五棵松,玉泉路,1810,1号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1778</v>
+      </c>
+      <c r="D27" t="s">
+        <v>396</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>万寿路,五棵松,1778,1号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>1313</v>
+      </c>
+      <c r="D28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>公主坟,万寿路,1313,1号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1172</v>
+      </c>
+      <c r="D29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>军事博物馆,公主坟,1172,1号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>木樨地,军事博物馆,1166,1号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1291</v>
+      </c>
+      <c r="D31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>南礼士路,木樨地,1291,1号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>424</v>
+      </c>
+      <c r="D32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>复兴门,南礼士路,424,1号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1596</v>
+      </c>
+      <c r="D33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>西单,复兴门,1596,1号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>1217</v>
+      </c>
+      <c r="D34" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>天安门西,西单,1217,1号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>925</v>
+      </c>
+      <c r="D35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>天安门东,天安门西,925,1号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>852</v>
+      </c>
+      <c r="D36" t="s">
+        <v>396</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>王府井,天安门东,852,1号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>774</v>
+      </c>
+      <c r="D37" t="s">
+        <v>396</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>东单,王府井,774,1号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>1230</v>
+      </c>
+      <c r="D38" t="s">
+        <v>396</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>建国门,东单,1230,1号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>1377</v>
+      </c>
+      <c r="D39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>永安里,建国门,1377,1号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>790</v>
+      </c>
+      <c r="D40" t="s">
+        <v>396</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>国贸,永安里,790,1号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>1385</v>
+      </c>
+      <c r="D41" t="s">
+        <v>396</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>大望路,国贸,1385,1号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1673</v>
+      </c>
+      <c r="D42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>四惠,大望路,1673,1号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>1714</v>
+      </c>
+      <c r="D43" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>四惠东,四惠,1714,1号线</v>
       </c>
     </row>
   </sheetData>
@@ -4230,202 +4842,683 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C94425-D2FE-477D-8BC6-1259095BB45A}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>910</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E37" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>西直门,车公庄,910,2号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>960</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>车公庄,阜成门,960,2号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1833</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>阜成门,复兴门,1833,2号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1234</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>复兴门,长椿街,1234,2号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>929</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>长椿街,宣武门,929,2号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>851</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>宣武门,和平门,851,2号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1171</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>和平门,前门,1171,2号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1634</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>前门,崇文门,1634,2号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1023</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>崇文门,北京站,1023,2号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>946</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>北京站,建国门,946,2号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1736</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>建国门,朝阳门,1736,2号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1027</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>朝阳门,东四十条,1027,2号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>824</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>东四十条,东直门,824,2号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2228</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>东直门,雍和宫,2228,2号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>792</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>雍和宫,安定门,792,2号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1237</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>安定门,鼓楼大街,1237,2号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1766</v>
+      </c>
+      <c r="D18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>鼓楼大街,积水潭,1766,2号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <v>1900</v>
+      </c>
+      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>积水潭,西直门,1900,2号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>910</v>
+      </c>
+      <c r="D20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>车公庄,西直门,910,2号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>960</v>
+      </c>
+      <c r="D21" t="s">
+        <v>397</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>阜成门,车公庄,960,2号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1833</v>
+      </c>
+      <c r="D22" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>复兴门,阜成门,1833,2号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1234</v>
+      </c>
+      <c r="D23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>长椿街,复兴门,1234,2号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>929</v>
+      </c>
+      <c r="D24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>宣武门,长椿街,929,2号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>851</v>
+      </c>
+      <c r="D25" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>和平门,宣武门,851,2号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>1171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>前门,和平门,1171,2号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>1634</v>
+      </c>
+      <c r="D27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>崇文门,前门,1634,2号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>1023</v>
+      </c>
+      <c r="D28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>北京站,崇文门,1023,2号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>946</v>
+      </c>
+      <c r="D29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>建国门,北京站,946,2号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>1736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>朝阳门,建国门,1736,2号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>1027</v>
+      </c>
+      <c r="D31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>东四十条,朝阳门,1027,2号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>824</v>
+      </c>
+      <c r="D32" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>东直门,东四十条,824,2号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>2228</v>
+      </c>
+      <c r="D33" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>雍和宫,东直门,2228,2号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>792</v>
+      </c>
+      <c r="D34" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>安定门,雍和宫,792,2号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>1237</v>
+      </c>
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>鼓楼大街,安定门,1237,2号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>1766</v>
+      </c>
+      <c r="D36" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>积水潭,鼓楼大街,1766,2号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C37">
+        <v>1900</v>
+      </c>
+      <c r="D37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>西直门,积水潭,1900,2号线</v>
       </c>
     </row>
   </sheetData>
@@ -6208,7 +7301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345BFAC-2BAA-4AA6-89D8-E64C470B1F4A}">
   <dimension ref="A1:C391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -10919,521 +12012,862 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF63458B-4D8A-4FD5-A30D-C8F657144B0E}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="C1">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2">
         <v>1363</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E47" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>安河桥北,北宫门,1363,4号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>1363</v>
+      </c>
+      <c r="D3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>北宫门,安河桥北,1363,4号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
-      </c>
-      <c r="C3">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
       </c>
       <c r="C4">
         <v>1251</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>北宫门,西苑,1251,4号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>西苑,北宫门,1251,4号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
-      </c>
-      <c r="C5">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
       </c>
       <c r="C6">
         <v>1672</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>西苑,圆明园,1672,4号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1672</v>
+      </c>
+      <c r="D7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>圆明园,西苑,1672,4号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
-      </c>
-      <c r="C7">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
       <c r="C8">
         <v>1295</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>圆明园,北京大学东门,1295,4号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>1295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>北京大学东门,圆明园,1295,4号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
-      </c>
-      <c r="C9">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
       </c>
       <c r="C10">
         <v>887</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>北京大学东门,中关村,887,4号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>887</v>
+      </c>
+      <c r="D11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>中关村,北京大学东门,887,4号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
-      </c>
-      <c r="C11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
       </c>
       <c r="C12">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>中关村,海淀黄庄,900,4号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>900</v>
+      </c>
+      <c r="D13" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>海淀黄庄,中关村,900,4号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14">
         <v>1063</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>海淀黄庄,人民大学,1063,4号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>1063</v>
+      </c>
+      <c r="D15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>人民大学,海淀黄庄,1063,4号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
-      </c>
-      <c r="C15">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
       </c>
       <c r="C16">
         <v>1051</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>人民大学,魏公村,1051,4号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>1051</v>
+      </c>
+      <c r="D17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>魏公村,人民大学,1051,4号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
-      </c>
-      <c r="C17">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
       </c>
       <c r="C18">
         <v>1658</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>魏公村,国家图书馆,1658,4号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1658</v>
+      </c>
+      <c r="D19" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>国家图书馆,魏公村,1658,4号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
-      </c>
-      <c r="C19">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
       <c r="C20">
         <v>1517</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>国家图书馆,动物园,1517,4号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>1517</v>
+      </c>
+      <c r="D21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>动物园,国家图书馆,1517,4号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
-      </c>
-      <c r="C21">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
       </c>
       <c r="C22">
         <v>1441</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>动物园,西直门,1441,4号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>1441</v>
+      </c>
+      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>西直门,动物园,1441,4号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="C23">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
       </c>
       <c r="C24">
         <v>1025</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>西直门,新街口,1025,4号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>1025</v>
+      </c>
+      <c r="D25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>新街口,西直门,1025,4号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="C25">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="C26">
         <v>1100</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>新街口,平安里,1100,4号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>1100</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>平安里,新街口,1100,4号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
       </c>
       <c r="C28">
         <v>1100</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>平安里,西四,1100,4号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>1100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>西四,平安里,1100,4号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="C29">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
       <c r="C30">
         <v>869</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>西四,灵境胡同,869,4号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>869</v>
+      </c>
+      <c r="D31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>灵境胡同,西四,869,4号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>11</v>
-      </c>
-      <c r="C31">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
       </c>
       <c r="C32">
         <v>1011</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>灵境胡同,西单,1011,4号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>1011</v>
+      </c>
+      <c r="D33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>西单,灵境胡同,1011,4号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
         <v>26</v>
-      </c>
-      <c r="C33">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
       </c>
       <c r="C34">
         <v>815</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>398</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>西单,宣武门,815,4号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>815</v>
+      </c>
+      <c r="D35" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>宣武门,西单,815,4号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
-      </c>
-      <c r="C35">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
       </c>
       <c r="C36">
         <v>1152</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>398</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>宣武门,菜市口,1152,4号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1152</v>
+      </c>
+      <c r="D37" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>菜市口,宣武门,1152,4号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>54</v>
-      </c>
-      <c r="C37">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
       </c>
       <c r="C38">
         <v>1200</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>菜市口,陶然亭,1200,4号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
       <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>1200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>398</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>陶然亭,菜市口,1200,4号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
         <v>55</v>
-      </c>
-      <c r="C39">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
       </c>
       <c r="C40">
         <v>1643</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>陶然亭,北京南站,1643,4号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>1643</v>
+      </c>
+      <c r="D41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>北京南站,陶然亭,1643,4号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
         <v>56</v>
-      </c>
-      <c r="C41">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
       </c>
       <c r="C42">
         <v>1480</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>北京南站,马家堡,1480,4号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>1480</v>
+      </c>
+      <c r="D43" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>马家堡,北京南站,1480,4号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
         <v>57</v>
-      </c>
-      <c r="C43">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
       </c>
       <c r="C44">
         <v>827</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>398</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>马家堡,角门西,827,4号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
       <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>827</v>
+      </c>
+      <c r="D45" t="s">
+        <v>398</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>角门西,马家堡,827,4号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
         <v>58</v>
-      </c>
-      <c r="C45">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>57</v>
       </c>
       <c r="C46">
         <v>989</v>
+      </c>
+      <c r="D46" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>角门西,公益西桥,989,4号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>989</v>
+      </c>
+      <c r="D47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>公益西桥,角门西,989,4号线</v>
       </c>
     </row>
   </sheetData>
@@ -11444,257 +12878,826 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0360DA8-1075-4AA6-BAE8-A34B3FC993C6}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>941</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E45" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>天通苑,天通苑北,941,5号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>964</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>天通苑南,天通苑,964,5号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1544</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>立水桥,天通苑南,1544,5号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1306</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>立水桥南,立水桥,1306,5号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1330</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>北苑路北,立水桥南,1330,5号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2956</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>大屯路东,北苑路北,2956,5号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1838</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>惠新西街北口,大屯路东,1838,5号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1121</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>惠新西街南口,惠新西街北口,1121,5号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1026</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>和平西桥,惠新西街南口,1026,5号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1059</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>和平里北街,和平西桥,1059,5号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1151</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>雍和宫,和平里北街,1151,5号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>866</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>北新桥,雍和宫,866,5号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>791</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>张自忠路,北新桥,791,5号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1017</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>东四,张自忠路,1017,5号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>848</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>灯市口,东四,848,5号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>945</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>东单,灯市口,945,5号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>822</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>崇文门,东单,822,5号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>877</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>磁器口,崇文门,877,5号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1183</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>天坛东门,磁器口,1183,5号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1900</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲黄榆,天坛东门,1900,5号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>905</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>刘家窑,蒲黄榆,905,5号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1670</v>
+      </c>
+      <c r="D23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>宋家庄,刘家窑,1670,5号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>941</v>
+      </c>
+      <c r="D24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>天通苑北,天通苑,941,5号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>964</v>
+      </c>
+      <c r="D25" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>天通苑,天通苑南,964,5号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>1544</v>
+      </c>
+      <c r="D26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>天通苑南,立水桥,1544,5号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>1306</v>
+      </c>
+      <c r="D27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>立水桥,立水桥南,1306,5号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>1330</v>
+      </c>
+      <c r="D28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>立水桥南,北苑路北,1330,5号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>2956</v>
+      </c>
+      <c r="D29" t="s">
+        <v>401</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>北苑路北,大屯路东,2956,5号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <v>1838</v>
+      </c>
+      <c r="D30" t="s">
+        <v>401</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>大屯路东,惠新西街北口,1838,5号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>1121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>惠新西街北口,惠新西街南口,1121,5号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>1026</v>
+      </c>
+      <c r="D32" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>惠新西街南口,和平西桥,1026,5号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>1059</v>
+      </c>
+      <c r="D33" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>和平西桥,和平里北街,1059,5号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>1151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>和平里北街,雍和宫,1151,5号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>866</v>
+      </c>
+      <c r="D35" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>雍和宫,北新桥,866,5号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>791</v>
+      </c>
+      <c r="D36" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>北新桥,张自忠路,791,5号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>1017</v>
+      </c>
+      <c r="D37" t="s">
+        <v>401</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>张自忠路,东四,1017,5号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>848</v>
+      </c>
+      <c r="D38" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>东四,灯市口,848,5号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>945</v>
+      </c>
+      <c r="D39" t="s">
+        <v>401</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>灯市口,东单,945,5号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>822</v>
+      </c>
+      <c r="D40" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>东单,崇文门,822,5号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>877</v>
+      </c>
+      <c r="D41" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>崇文门,磁器口,877,5号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>1183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>磁器口,天坛东门,1183,5号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43">
+        <v>1900</v>
+      </c>
+      <c r="D43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>天坛东门,蒲黄榆,1900,5号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>905</v>
+      </c>
+      <c r="D44" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲黄榆,刘家窑,905,5号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>1670</v>
+      </c>
+      <c r="D45" t="s">
+        <v>401</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>刘家窑,宋家庄,1670,5号线</v>
       </c>
     </row>
   </sheetData>
@@ -11705,378 +13708,1222 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C677656-C3B0-4683-8430-0B78FE69D483}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1438</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>金安桥,苹果园,1438,6号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>839</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>苹果园,杨庄,839,6号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1792</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>杨庄,西黄村,1792,6号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1794</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>西黄村,廖公庄,1794,6号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2276</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>廖公庄,田村,2276,6号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2140</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>田村,海淀五路居,2140,6号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1509</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>海淀五路居,慈寿寺,1509,6号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1431</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>慈寿寺,花园桥,1431,6号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1167</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>花园桥,白石桥南,1167,6号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>777</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>白石桥南,二里沟,777,6号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>888</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>二里沟,车公庄西,888,6号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>887</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>车公庄西,车公庄,887,6号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1444</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>车公庄,平安里,1444,6号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1322</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>平安里,北海北,1322,6号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>92</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1349</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>北海北,南锣鼓巷,1349,6号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1937</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>南锣鼓巷,东四,1937,6号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>东四,朝阳门,1400,6号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1669</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>朝阳门,东大桥,1669,6号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>846</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>东大桥,呼家楼,846,6号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1450</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>呼家楼,金台路,1450,6号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2037</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>金台路,十里堡,2037,6号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1283</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>十里堡,青年路,1283,6号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>98</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>3999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>青年路,褡裢坡,3999,6号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1239</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>褡裢坡,黄渠,1239,6号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>99</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1854</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>黄渠,常营,1854,6号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1407</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>常营,草房,1407,6号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>2115</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>草房,物资学院路,2115,6号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>103</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2557</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>物资学院路,通州北关,2557,6号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>3011</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>通州北关,北运河西,3011,6号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>1600</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>北运河西,北运河东,1600,6号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>929</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>北运河东,郝家府,929,6号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>107</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>1347</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
+        <v>402</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>郝家府,东夏园,1347,6号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>1194</v>
+      </c>
+      <c r="D34" t="s">
+        <v>402</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>东夏园,潞城,1194,6号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>1438</v>
+      </c>
+      <c r="D35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>苹果园,金安桥,1438,6号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>839</v>
+      </c>
+      <c r="D36" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>杨庄,苹果园,839,6号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>1792</v>
+      </c>
+      <c r="D37" t="s">
+        <v>402</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>西黄村,杨庄,1792,6号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>1794</v>
+      </c>
+      <c r="D38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>廖公庄,西黄村,1794,6号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39">
+        <v>2276</v>
+      </c>
+      <c r="D39" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>田村,廖公庄,2276,6号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>2140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>海淀五路居,田村,2140,6号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>1509</v>
+      </c>
+      <c r="D41" t="s">
+        <v>402</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>慈寿寺,海淀五路居,1509,6号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>1431</v>
+      </c>
+      <c r="D42" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>花园桥,慈寿寺,1431,6号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <v>1167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>白石桥南,花园桥,1167,6号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>777</v>
+      </c>
+      <c r="D44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>二里沟,白石桥南,777,6号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>888</v>
+      </c>
+      <c r="D45" t="s">
+        <v>402</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>车公庄西,二里沟,888,6号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>887</v>
+      </c>
+      <c r="D46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>车公庄,车公庄西,887,6号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>1444</v>
+      </c>
+      <c r="D47" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>平安里,车公庄,1444,6号线</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>1322</v>
+      </c>
+      <c r="D48" t="s">
+        <v>402</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>北海北,平安里,1322,6号线</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49">
+        <v>1349</v>
+      </c>
+      <c r="D49" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>南锣鼓巷,北海北,1349,6号线</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>1937</v>
+      </c>
+      <c r="D50" t="s">
+        <v>402</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>东四,南锣鼓巷,1937,6号线</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>1400</v>
+      </c>
+      <c r="D51" t="s">
+        <v>402</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>朝阳门,东四,1400,6号线</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>1669</v>
+      </c>
+      <c r="D52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>东大桥,朝阳门,1669,6号线</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53">
+        <v>846</v>
+      </c>
+      <c r="D53" t="s">
+        <v>402</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>呼家楼,东大桥,846,6号线</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54">
+        <v>1450</v>
+      </c>
+      <c r="D54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>金台路,呼家楼,1450,6号线</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55">
+        <v>2037</v>
+      </c>
+      <c r="D55" t="s">
+        <v>402</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>十里堡,金台路,2037,6号线</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56">
+        <v>1283</v>
+      </c>
+      <c r="D56" t="s">
+        <v>402</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>青年路,十里堡,1283,6号线</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57">
+        <v>3999</v>
+      </c>
+      <c r="D57" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>褡裢坡,青年路,3999,6号线</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58">
+        <v>1239</v>
+      </c>
+      <c r="D58" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>黄渠,褡裢坡,1239,6号线</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>1854</v>
+      </c>
+      <c r="D59" t="s">
+        <v>402</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>常营,黄渠,1854,6号线</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>1407</v>
+      </c>
+      <c r="D60" t="s">
+        <v>402</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>草房,常营,1407,6号线</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61">
+        <v>2115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>402</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>物资学院路,草房,2115,6号线</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62">
+        <v>2557</v>
+      </c>
+      <c r="D62" t="s">
+        <v>402</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>通州北关,物资学院路,2557,6号线</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63">
+        <v>3011</v>
+      </c>
+      <c r="D63" t="s">
+        <v>402</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>北运河西,通州北关,3011,6号线</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64">
+        <v>1600</v>
+      </c>
+      <c r="D64" t="s">
+        <v>402</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>北运河东,北运河西,1600,6号线</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65">
+        <v>929</v>
+      </c>
+      <c r="D65" t="s">
+        <v>402</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>郝家府,北运河东,929,6号线</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66">
+        <v>1347</v>
+      </c>
+      <c r="D66" t="s">
+        <v>402</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E67" si="1">_xlfn.CONCAT(A66,",",B66,",",C66,",",D66)</f>
+        <v>东夏园,郝家府,1347,6号线</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67">
+        <v>1194</v>
+      </c>
+      <c r="D67" t="s">
+        <v>402</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>潞城,东夏园,1194,6号线</v>
       </c>
     </row>
   </sheetData>
@@ -12087,334 +14934,1078 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB81D7C-14C4-446A-8238-88A1A92EDD56}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>935</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E59" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>北京西站,湾子,935,7号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>734</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>湾子,达官营,734,7号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>112</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1875</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>达官营,广安门内,1875,7号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1373</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>广安门内,菜市口,1373,7号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>886</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>菜市口,虎坊桥,886,7号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>113</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1205</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>虎坊桥,珠市口,1205,7号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>869</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>珠市口,桥湾,869,7号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1016</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>桥湾,磁器口,1016,7号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1138</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>磁器口,广渠门内,1138,7号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>117</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1332</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>广渠门内,广渠门外,1332,7号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>118</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1241</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>广渠门外,双井,1241,7号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>118</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>119</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1311</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>双井,九龙山,1311,7号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>120</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>781</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>九龙山,大郊亭,781,7号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>121</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>865</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>大郊亭,百子湾,865,7号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>121</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>122</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>903</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>百子湾,化工,903,7号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>122</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>123</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1465</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>化工,南楼梓庄,1465,7号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>124</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>905</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>南楼梓庄,欢乐谷景区,905,7号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>125</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1679</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>欢乐谷景区,垡头,1679,7号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1304</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>垡头,双合,1304,7号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>127</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1021</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>双合,焦化厂,1021,7号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>127</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1678</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>焦化厂,黄厂,1678,7号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>128</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>129</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1752</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>黄厂,郎辛庄,1752,7号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>129</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>130</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2517</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>郎辛庄,黑庄户,2517,7号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>2961</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>黑庄户,万盛西,2961,7号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>131</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>132</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>2110</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>万盛西,万盛东,2110,7号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>132</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>133</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1160</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>万盛东,群芳,1160,7号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>133</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>134</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1195</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>群芳,高楼金,1195,7号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>134</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1425</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>高楼金,花庄,1425,7号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>135</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>136</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>1769</v>
+      </c>
+      <c r="D30" t="s">
+        <v>403</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>花庄,环球度假区,1769,7号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>935</v>
+      </c>
+      <c r="D31" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>湾子,北京西站,935,7号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32">
+        <v>734</v>
+      </c>
+      <c r="D32" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>达官营,湾子,734,7号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33">
+        <v>1875</v>
+      </c>
+      <c r="D33" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>广安门内,达官营,1875,7号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34">
+        <v>1373</v>
+      </c>
+      <c r="D34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>菜市口,广安门内,1373,7号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>886</v>
+      </c>
+      <c r="D35" t="s">
+        <v>403</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>虎坊桥,菜市口,886,7号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36">
+        <v>1205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>403</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>珠市口,虎坊桥,1205,7号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37">
+        <v>869</v>
+      </c>
+      <c r="D37" t="s">
+        <v>403</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>桥湾,珠市口,869,7号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38">
+        <v>1016</v>
+      </c>
+      <c r="D38" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>磁器口,桥湾,1016,7号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>1138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>广渠门内,磁器口,1138,7号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40">
+        <v>1332</v>
+      </c>
+      <c r="D40" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>广渠门外,广渠门内,1332,7号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41">
+        <v>1241</v>
+      </c>
+      <c r="D41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>双井,广渠门外,1241,7号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42">
+        <v>1311</v>
+      </c>
+      <c r="D42" t="s">
+        <v>403</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>九龙山,双井,1311,7号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43">
+        <v>781</v>
+      </c>
+      <c r="D43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>大郊亭,九龙山,781,7号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>865</v>
+      </c>
+      <c r="D44" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>百子湾,大郊亭,865,7号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <v>903</v>
+      </c>
+      <c r="D45" t="s">
+        <v>403</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>化工,百子湾,903,7号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46">
+        <v>1465</v>
+      </c>
+      <c r="D46" t="s">
+        <v>403</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>南楼梓庄,化工,1465,7号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <v>905</v>
+      </c>
+      <c r="D47" t="s">
+        <v>403</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>欢乐谷景区,南楼梓庄,905,7号线</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <v>1679</v>
+      </c>
+      <c r="D48" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>垡头,欢乐谷景区,1679,7号线</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49">
+        <v>1304</v>
+      </c>
+      <c r="D49" t="s">
+        <v>403</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>双合,垡头,1304,7号线</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50">
+        <v>1021</v>
+      </c>
+      <c r="D50" t="s">
+        <v>403</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>焦化厂,双合,1021,7号线</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51">
+        <v>1678</v>
+      </c>
+      <c r="D51" t="s">
+        <v>403</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>黄厂,焦化厂,1678,7号线</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52">
+        <v>1752</v>
+      </c>
+      <c r="D52" t="s">
+        <v>403</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>郎辛庄,黄厂,1752,7号线</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53">
+        <v>2517</v>
+      </c>
+      <c r="D53" t="s">
+        <v>403</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>黑庄户,郎辛庄,2517,7号线</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54">
+        <v>2961</v>
+      </c>
+      <c r="D54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>万盛西,黑庄户,2961,7号线</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55">
+        <v>2110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>403</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>万盛东,万盛西,2110,7号线</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56">
+        <v>1160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>403</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>群芳,万盛东,1160,7号线</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57">
+        <v>1195</v>
+      </c>
+      <c r="D57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>高楼金,群芳,1195,7号线</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58">
+        <v>1425</v>
+      </c>
+      <c r="D58" t="s">
+        <v>403</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>花庄,高楼金,1425,7号线</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59">
+        <v>1769</v>
+      </c>
+      <c r="D59" t="s">
+        <v>403</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>环球度假区,花庄,1769,7号线</v>
       </c>
     </row>
   </sheetData>
@@ -12425,378 +16016,1222 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0530D413-A4F3-4288-AF92-F4431F7CDAB8}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2319</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>育知路,朱辛庄,2319,8号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1986</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>平西府,育知路,1986,8号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>139</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>回龙观东大街,平西府,2017,8号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>141</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1115</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>霍营,回龙观东大街,1115,8号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>142</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>141</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1895</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>育新,霍营,1895,8号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>142</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1543</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>西小口,育新,1543,8号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>144</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>143</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1042</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>永泰庄,西小口,1042,8号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>144</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2553</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>林萃桥,永泰庄,2553,8号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>146</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>145</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2558</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>森林公园南门,林萃桥,2558,8号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>147</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1017</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>奥林匹克公园,森林公园南门,1017,8号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>148</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>147</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1667</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>奥体中心,奥林匹克公园,1667,8号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>149</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>148</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>北土城,奥体中心,900,8号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>150</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>149</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1009</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>安华桥,北土城,1009,8号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>151</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>150</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1275</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>安德里北街,安华桥,1275,8号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>151</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1084</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>鼓楼大街,安德里北街,1084,8号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>152</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1188</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>什刹海,鼓楼大街,1188,8号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>92</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>152</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>902</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>南锣鼓巷,什刹海,902,8号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>153</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1437</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>404</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>中国美术馆,南锣鼓巷,1437,8号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>154</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>153</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>873</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>金鱼胡同,中国美术馆,873,8号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>154</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>762</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>王府井,金鱼胡同,762,8号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1857</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>前门,王府井,1857,8号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1085</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>珠市口,前门,1085,8号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>155</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>881</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>天桥,珠市口,881,8号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>156</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1800</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>永定门外,天桥,1800,8号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>157</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>156</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>741</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>木樨园,永定门外,741,8号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>158</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>845</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>海户屯,木樨园,845,8号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>158</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1678</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>大红门南,海户屯,1678,8号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>160</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>159</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2446</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>和义,大红门南,2446,8号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>161</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>160</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>1537</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>东高地,和义,1537,8号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>162</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>161</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>1215</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>火箭万源,东高地,1215,8号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>163</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>162</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1684</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>五福堂,火箭万源,1684,8号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>164</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>163</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>2076</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>德茂,五福堂,2076,8号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>165</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>164</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>1510</v>
+      </c>
+      <c r="D34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>瀛海,德茂,1510,8号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35">
+        <v>2319</v>
+      </c>
+      <c r="D35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>朱辛庄,育知路,2319,8号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36">
+        <v>1986</v>
+      </c>
+      <c r="D36" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>育知路,平西府,1986,8号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37">
+        <v>2017</v>
+      </c>
+      <c r="D37" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>平西府,回龙观东大街,2017,8号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38">
+        <v>1115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>404</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>回龙观东大街,霍营,1115,8号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39">
+        <v>1895</v>
+      </c>
+      <c r="D39" t="s">
+        <v>404</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>霍营,育新,1895,8号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40">
+        <v>1543</v>
+      </c>
+      <c r="D40" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>育新,西小口,1543,8号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41">
+        <v>1042</v>
+      </c>
+      <c r="D41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>西小口,永泰庄,1042,8号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42">
+        <v>2553</v>
+      </c>
+      <c r="D42" t="s">
+        <v>404</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>永泰庄,林萃桥,2553,8号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43">
+        <v>2558</v>
+      </c>
+      <c r="D43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>林萃桥,森林公园南门,2558,8号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44">
+        <v>1017</v>
+      </c>
+      <c r="D44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>森林公园南门,奥林匹克公园,1017,8号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45">
+        <v>1667</v>
+      </c>
+      <c r="D45" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>奥林匹克公园,奥体中心,1667,8号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46">
+        <v>900</v>
+      </c>
+      <c r="D46" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>奥体中心,北土城,900,8号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47">
+        <v>1009</v>
+      </c>
+      <c r="D47" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>北土城,安华桥,1009,8号线</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48">
+        <v>1275</v>
+      </c>
+      <c r="D48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>安华桥,安德里北街,1275,8号线</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>1084</v>
+      </c>
+      <c r="D49" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>安德里北街,鼓楼大街,1084,8号线</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50">
+        <v>1188</v>
+      </c>
+      <c r="D50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>鼓楼大街,什刹海,1188,8号线</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51">
+        <v>902</v>
+      </c>
+      <c r="D51" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>什刹海,南锣鼓巷,902,8号线</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52">
+        <v>1437</v>
+      </c>
+      <c r="D52" t="s">
+        <v>404</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>南锣鼓巷,中国美术馆,1437,8号线</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53">
+        <v>873</v>
+      </c>
+      <c r="D53" t="s">
+        <v>404</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>中国美术馆,金鱼胡同,873,8号线</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>762</v>
+      </c>
+      <c r="D54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>金鱼胡同,王府井,762,8号线</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>1857</v>
+      </c>
+      <c r="D55" t="s">
+        <v>404</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>王府井,前门,1857,8号线</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56">
+        <v>1085</v>
+      </c>
+      <c r="D56" t="s">
+        <v>404</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>前门,珠市口,1085,8号线</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57">
+        <v>881</v>
+      </c>
+      <c r="D57" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>珠市口,天桥,881,8号线</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58">
+        <v>1800</v>
+      </c>
+      <c r="D58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>天桥,永定门外,1800,8号线</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59">
+        <v>741</v>
+      </c>
+      <c r="D59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>永定门外,木樨园,741,8号线</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60">
+        <v>845</v>
+      </c>
+      <c r="D60" t="s">
+        <v>404</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>木樨园,海户屯,845,8号线</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61">
+        <v>1678</v>
+      </c>
+      <c r="D61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>海户屯,大红门南,1678,8号线</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>2446</v>
+      </c>
+      <c r="D62" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>大红门南,和义,2446,8号线</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63">
+        <v>1537</v>
+      </c>
+      <c r="D63" t="s">
+        <v>404</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>和义,东高地,1537,8号线</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64">
+        <v>1215</v>
+      </c>
+      <c r="D64" t="s">
+        <v>404</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>东高地,火箭万源,1215,8号线</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65">
+        <v>1684</v>
+      </c>
+      <c r="D65" t="s">
+        <v>404</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>火箭万源,五福堂,1684,8号线</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66">
+        <v>2076</v>
+      </c>
+      <c r="D66" t="s">
+        <v>404</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E67" si="1">_xlfn.CONCAT(A66,",",B66,",",C66,",",D66)</f>
+        <v>五福堂,德茂,2076,8号线</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67">
+        <v>1510</v>
+      </c>
+      <c r="D67" t="s">
+        <v>404</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>德茂,瀛海,1510,8号线</v>
       </c>
     </row>
   </sheetData>
@@ -12807,147 +17242,466 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AAB96-47FA-4F62-908C-385867242D3E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1096</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E25" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>白石桥南,国家图书馆,1096,9号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>166</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1044</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>白堆子,白石桥南,1044,9号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>166</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1912</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>军事博物馆,白堆子,1912,9号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1398</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>北京西站,军事博物馆,1398,9号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>109</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1171</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>六里桥东,北京西站,1171,9号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>168</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>167</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1309</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>六里桥,六里桥东,1309,9号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>168</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1779</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>七里庄,六里桥,1779,9号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>170</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>169</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1326</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台东大街,七里庄,1326,9号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>171</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1585</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台南路,丰台东大街,1585,9号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>171</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>980</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>科怡路,丰台南路,980,9号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>788</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台科技园,科怡路,788,9号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1348</v>
+      </c>
+      <c r="D13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>郭公庄,丰台科技园,1348,9号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>1096</v>
+      </c>
+      <c r="D14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>国家图书馆,白石桥南,1096,9号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15">
+        <v>1044</v>
+      </c>
+      <c r="D15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>白石桥南,白堆子,1044,9号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1912</v>
+      </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>白堆子,军事博物馆,1912,9号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17">
+        <v>1398</v>
+      </c>
+      <c r="D17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>军事博物馆,北京西站,1398,9号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18">
+        <v>1171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>北京西站,六里桥东,1171,9号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19">
+        <v>1309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>六里桥东,六里桥,1309,9号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20">
+        <v>1779</v>
+      </c>
+      <c r="D20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>六里桥,七里庄,1779,9号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21">
+        <v>1326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>七里庄,丰台东大街,1326,9号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22">
+        <v>1585</v>
+      </c>
+      <c r="D22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台东大街,丰台南路,1585,9号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23">
+        <v>980</v>
+      </c>
+      <c r="D23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台南路,科怡路,980,9号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24">
+        <v>788</v>
+      </c>
+      <c r="D24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>科怡路,丰台科技园,788,9号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>1348</v>
+      </c>
+      <c r="D25" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台科技园,郭公庄,1348,9号线</v>
       </c>
     </row>
   </sheetData>
@@ -12958,499 +17712,529 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B2138A-2B53-4721-98BF-7EE494102443}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>177</v>
       </c>
       <c r="C2">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>178</v>
       </c>
       <c r="C4">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>179</v>
       </c>
       <c r="C5">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>180</v>
       </c>
       <c r="C6">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>181</v>
       </c>
       <c r="C7">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>182</v>
       </c>
       <c r="C8">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>149</v>
       </c>
       <c r="C9">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>183</v>
       </c>
       <c r="C10">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>184</v>
       </c>
       <c r="C12">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
         <v>185</v>
       </c>
       <c r="C13">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>186</v>
       </c>
       <c r="C14">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>187</v>
       </c>
       <c r="C15">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
         <v>188</v>
       </c>
       <c r="C16">
-        <v>853</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
         <v>189</v>
       </c>
       <c r="C17">
-        <v>1150</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
         <v>94</v>
       </c>
       <c r="C18">
-        <v>734</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>190</v>
       </c>
       <c r="C19">
-        <v>835</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1760</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>118</v>
       </c>
       <c r="C21">
-        <v>1033</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>191</v>
       </c>
       <c r="C22">
-        <v>1021</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
         <v>192</v>
       </c>
       <c r="C23">
-        <v>1073</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
         <v>193</v>
       </c>
       <c r="C24">
-        <v>1803</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
         <v>194</v>
       </c>
       <c r="C25">
-        <v>1060</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
         <v>195</v>
       </c>
       <c r="C26">
-        <v>1675</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
       </c>
       <c r="C27">
-        <v>1273</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
         <v>196</v>
       </c>
       <c r="C28">
-        <v>1244</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
         <v>197</v>
       </c>
       <c r="C29">
-        <v>1124</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>198</v>
       </c>
       <c r="C30">
-        <v>1259</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
       </c>
       <c r="C31">
-        <v>1688</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>199</v>
       </c>
       <c r="C32">
-        <v>1550</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
         <v>200</v>
       </c>
       <c r="C33">
-        <v>1119</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
         <v>201</v>
       </c>
       <c r="C34">
-        <v>1717</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
         <v>202</v>
       </c>
       <c r="C35">
-        <v>954</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
         <v>203</v>
       </c>
       <c r="C36">
-        <v>749</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
         <v>204</v>
       </c>
       <c r="C37">
-        <v>1587</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
         <v>168</v>
       </c>
       <c r="C38">
-        <v>2365</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
         <v>205</v>
       </c>
       <c r="C39">
-        <v>1041</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>2386</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>206</v>
       </c>
       <c r="C41">
-        <v>1215</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
       </c>
       <c r="C42">
-        <v>1591</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>207</v>
       </c>
       <c r="C43">
-        <v>1206</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
         <v>208</v>
       </c>
       <c r="C44">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45">
         <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46">
+        <v>1441</v>
       </c>
     </row>
   </sheetData>

--- a/neo4j-example/beijing-subway-2024/all.xlsx
+++ b/neo4j-example/beijing-subway-2024/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\neo4j-example\beijing-subway-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F58180-1641-48A7-BFA6-7FA25F7963EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64849F87-AA3D-44C7-9B81-9B185F4E525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号线" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="413">
   <si>
     <t>古城</t>
   </si>
@@ -1308,6 +1308,22 @@
   </si>
   <si>
     <t>巴沟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2428,45 +2444,143 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456EA876-8534-4316-9029-01F5ED6FB6A3}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E7" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>模式口,金安桥,1366,11号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>850</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>金安桥,北辛安,850,11号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>211</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>689</v>
+      </c>
+      <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>北辛安,新首钢,689,11号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5">
+        <v>1366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>金安桥,模式口,1366,11号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>850</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>北辛安,金安桥,850,11号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7">
+        <v>689</v>
+      </c>
+      <c r="D7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>新首钢,北辛安,689,11号线</v>
       </c>
     </row>
   </sheetData>
@@ -2477,188 +2591,611 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A448B-1755-47D0-81B9-A2402292A32C}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2839</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E33" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>大钟寺,西直门,2839,13号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>212</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1206</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>知春路,大钟寺,1206,13号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>179</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1829</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>五道口,知春路,1829,13号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>214</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>213</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4866</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>上地,五道口,4866,13号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>214</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1018</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>清河站,上地,1018,13号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>216</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>215</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1545</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>西二旗,清河站,1545,13号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>217</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>216</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3623</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>龙泽,西二旗,3623,13号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>218</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>217</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1423</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>回龙观,龙泽,1423,13号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>141</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>218</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2110</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>霍营,回龙观,2110,13号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>141</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>4786</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>立水桥,霍营,4786,13号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>219</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2272</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>北苑,立水桥,2272,13号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>220</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>219</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>6720</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>望京西,北苑,6720,13号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>184</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>220</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2152</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>芍药居,望京西,2152,13号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>221</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>184</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1110</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>光熙门,芍药居,1110,13号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>222</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>221</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1135</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>柳芳,光熙门,1135,13号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>222</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1769</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>东直门,柳芳,1769,13号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18">
+        <v>2839</v>
+      </c>
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>西直门,大钟寺,2839,13号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19">
+        <v>1206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>大钟寺,知春路,1206,13号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20">
+        <v>1829</v>
+      </c>
+      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>知春路,五道口,1829,13号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21">
+        <v>4866</v>
+      </c>
+      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>五道口,上地,4866,13号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22">
+        <v>1018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>上地,清河站,1018,13号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23">
+        <v>1545</v>
+      </c>
+      <c r="D23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>清河站,西二旗,1545,13号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24">
+        <v>3623</v>
+      </c>
+      <c r="D24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>西二旗,龙泽,3623,13号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25">
+        <v>1423</v>
+      </c>
+      <c r="D25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>龙泽,回龙观,1423,13号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26">
+        <v>2110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>411</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>回龙观,霍营,2110,13号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>4786</v>
+      </c>
+      <c r="D27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>霍营,立水桥,4786,13号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28">
+        <v>2272</v>
+      </c>
+      <c r="D28" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>立水桥,北苑,2272,13号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>6720</v>
+      </c>
+      <c r="D29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>北苑,望京西,6720,13号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30">
+        <v>2152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>望京西,芍药居,2152,13号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31">
+        <v>1110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>芍药居,光熙门,1110,13号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32">
+        <v>1135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>光熙门,柳芳,1135,13号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>1769</v>
+      </c>
+      <c r="D33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>柳芳,东直门,1769,13号线</v>
       </c>
     </row>
   </sheetData>
@@ -2669,675 +3206,1114 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085B354A-C487-40D3-B87B-2CFA4A1871C1}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>223</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>224</v>
-      </c>
-      <c r="C1">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
       </c>
       <c r="C2">
         <v>1345</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E61" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>张郭庄,园博园,1345,14号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>224</v>
       </c>
       <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3">
+        <v>1345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>园博园,张郭庄,1345,14号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
         <v>225</v>
-      </c>
-      <c r="C3">
-        <v>4073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>224</v>
       </c>
       <c r="C4">
         <v>4073</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>园博园,大瓦窑,4073,14号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
       <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5">
+        <v>4073</v>
+      </c>
+      <c r="D5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>大瓦窑,园博园,4073,14号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
         <v>226</v>
-      </c>
-      <c r="C5">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
       </c>
       <c r="C6">
         <v>1236</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>大瓦窑,郭庄子,1236,14号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
       <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>1236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>郭庄子,大瓦窑,1236,14号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
         <v>227</v>
-      </c>
-      <c r="C7">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" t="s">
-        <v>226</v>
       </c>
       <c r="C8">
         <v>2044</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>郭庄子,大井,2044,14号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>227</v>
       </c>
       <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>2044</v>
+      </c>
+      <c r="D9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>大井,郭庄子,2044,14号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
         <v>169</v>
-      </c>
-      <c r="C9">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>227</v>
       </c>
       <c r="C10">
         <v>1579</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>大井,七里庄,1579,14号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11">
+        <v>1579</v>
+      </c>
+      <c r="D11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>七里庄,大井,1579,14号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
         <v>204</v>
-      </c>
-      <c r="C11">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>169</v>
       </c>
       <c r="C12">
         <v>845</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>七里庄,西局,845,14号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13">
+        <v>845</v>
+      </c>
+      <c r="D13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>西局,七里庄,845,14号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>228</v>
-      </c>
-      <c r="C13">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
       </c>
       <c r="C14">
         <v>887</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>北京南站,陶然桥,887,14号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>887</v>
+      </c>
+      <c r="D15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>陶然桥,北京南站,887,14号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
         <v>156</v>
-      </c>
-      <c r="C15">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>228</v>
       </c>
       <c r="C16">
         <v>1063</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>陶然桥,永定门外,1063,14号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
       <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17">
+        <v>1063</v>
+      </c>
+      <c r="D17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>永定门外,陶然桥,1063,14号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
         <v>229</v>
-      </c>
-      <c r="C17">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" t="s">
-        <v>156</v>
       </c>
       <c r="C18">
         <v>1119</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>永定门外,景泰,1119,14号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>229</v>
       </c>
       <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19">
+        <v>1119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>景泰,永定门外,1119,14号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
-      </c>
-      <c r="C19">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>229</v>
       </c>
       <c r="C20">
         <v>1025</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>景泰,蒲黄榆,1025,14号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
       <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21">
+        <v>1025</v>
+      </c>
+      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲黄榆,景泰,1025,14号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>230</v>
-      </c>
-      <c r="C21">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
       </c>
       <c r="C22">
         <v>1486</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲黄榆,方庄,1486,14号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>230</v>
       </c>
       <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23">
+        <v>1486</v>
+      </c>
+      <c r="D23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>方庄,蒲黄榆,1486,14号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
         <v>193</v>
-      </c>
-      <c r="C23">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" t="s">
-        <v>230</v>
       </c>
       <c r="C24">
         <v>1618</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>方庄,十里河,1618,14号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>193</v>
       </c>
       <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25">
+        <v>1618</v>
+      </c>
+      <c r="D25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>十里河,方庄,1618,14号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
         <v>231</v>
-      </c>
-      <c r="C25">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>193</v>
       </c>
       <c r="C26">
         <v>1147</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>十里河,南八里庄,1147,14号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
       <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27">
+        <v>1147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>南八里庄,十里河,1147,14号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
         <v>232</v>
-      </c>
-      <c r="C27">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" t="s">
-        <v>231</v>
       </c>
       <c r="C28">
         <v>1276</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>南八里庄,北工大西门,1276,14号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>232</v>
       </c>
       <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29">
+        <v>1276</v>
+      </c>
+      <c r="D29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>北工大西门,南八里庄,1276,14号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
         <v>233</v>
-      </c>
-      <c r="C29">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" t="s">
-        <v>232</v>
       </c>
       <c r="C30">
         <v>1128</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>北工大西门,平乐园,1128,14号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>233</v>
       </c>
       <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31">
+        <v>1128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>平乐园,北工大西门,1128,14号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" t="s">
         <v>119</v>
-      </c>
-      <c r="C31">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>233</v>
       </c>
       <c r="C32">
         <v>897</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>平乐园,九龙山,897,14号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
       <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33">
+        <v>897</v>
+      </c>
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>九龙山,平乐园,897,14号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
         <v>19</v>
-      </c>
-      <c r="C33">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>119</v>
       </c>
       <c r="C34">
         <v>1780</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>九龙山,大望路,1780,14号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
       <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35">
+        <v>1780</v>
+      </c>
+      <c r="D35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>大望路,九龙山,1780,14号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
         <v>234</v>
-      </c>
-      <c r="C35">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
       </c>
       <c r="C36">
         <v>708</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>412</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>大望路,红庙,708,14号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>234</v>
       </c>
       <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>708</v>
+      </c>
+      <c r="D37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>红庙,大望路,708,14号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
         <v>95</v>
-      </c>
-      <c r="C37">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>234</v>
       </c>
       <c r="C38">
         <v>894</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>412</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>红庙,金台路,894,14号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
       <c r="B39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39">
+        <v>894</v>
+      </c>
+      <c r="D39" t="s">
+        <v>412</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>金台路,红庙,894,14号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
         <v>235</v>
-      </c>
-      <c r="C39">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
       </c>
       <c r="C40">
         <v>1085</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>412</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>金台路,朝阳公园,1085,14号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>235</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41">
+        <v>1085</v>
+      </c>
+      <c r="D41" t="s">
+        <v>412</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>朝阳公园,金台路,1085,14号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
         <v>236</v>
-      </c>
-      <c r="C41">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" t="s">
-        <v>235</v>
       </c>
       <c r="C42">
         <v>1221</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>412</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>朝阳公园,枣营,1221,14号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>236</v>
       </c>
       <c r="B43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43">
+        <v>1221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>412</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>枣营,朝阳公园,1221,14号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
         <v>237</v>
-      </c>
-      <c r="C43">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44" t="s">
-        <v>236</v>
       </c>
       <c r="C44">
         <v>2173</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>412</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>枣营,东风北桥,2173,14号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>237</v>
       </c>
       <c r="B45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45">
+        <v>2173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>412</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>东风北桥,枣营,2173,14号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
         <v>238</v>
-      </c>
-      <c r="C45">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>238</v>
-      </c>
-      <c r="B46" t="s">
-        <v>237</v>
       </c>
       <c r="C46">
         <v>1600</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>412</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>东风北桥,将台,1600,14号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>238</v>
       </c>
       <c r="B47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47">
+        <v>1600</v>
+      </c>
+      <c r="D47" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>将台,东风北桥,1600,14号线</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
         <v>239</v>
-      </c>
-      <c r="C47">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B48" t="s">
-        <v>238</v>
       </c>
       <c r="C48">
         <v>1171</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>将台,高家园,1171,14号线</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>239</v>
       </c>
       <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49">
+        <v>1171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>412</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>高家园,将台,1171,14号线</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
         <v>240</v>
-      </c>
-      <c r="C49">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" t="s">
-        <v>239</v>
       </c>
       <c r="C50">
         <v>676</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>412</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>高家园,望京南,676,14号线</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>240</v>
       </c>
       <c r="B51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51">
+        <v>676</v>
+      </c>
+      <c r="D51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>望京南,高家园,676,14号线</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
         <v>241</v>
-      </c>
-      <c r="C51">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" t="s">
-        <v>240</v>
       </c>
       <c r="C52">
         <v>1168</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>412</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>望京南,阜通,1168,14号线</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>241</v>
       </c>
       <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53">
+        <v>1168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>阜通,望京南,1168,14号线</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" t="s">
         <v>242</v>
-      </c>
-      <c r="C53">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" t="s">
-        <v>241</v>
       </c>
       <c r="C54">
         <v>903</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>阜通,望京,903,14号线</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>242</v>
       </c>
       <c r="B55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55">
+        <v>903</v>
+      </c>
+      <c r="D55" t="s">
+        <v>412</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>望京,阜通,903,14号线</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" t="s">
         <v>243</v>
-      </c>
-      <c r="C55">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>243</v>
-      </c>
-      <c r="B56" t="s">
-        <v>242</v>
       </c>
       <c r="C56">
         <v>1283</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>412</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>望京,东湖渠,1283,14号线</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>243</v>
       </c>
       <c r="B57" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57">
+        <v>1283</v>
+      </c>
+      <c r="D57" t="s">
+        <v>412</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>东湖渠,望京,1283,14号线</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
         <v>244</v>
-      </c>
-      <c r="C57">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" t="s">
-        <v>243</v>
       </c>
       <c r="C58">
         <v>1100</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>412</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>东湖渠,来广营,1100,14号线</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>244</v>
       </c>
       <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59">
+        <v>1100</v>
+      </c>
+      <c r="D59" t="s">
+        <v>412</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>来广营,东湖渠,1100,14号线</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" t="s">
         <v>245</v>
-      </c>
-      <c r="C59">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>245</v>
-      </c>
-      <c r="B60" t="s">
-        <v>244</v>
       </c>
       <c r="C60">
         <v>1364</v>
+      </c>
+      <c r="D60" t="s">
+        <v>412</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>来广营,善各庄,1364,14号线</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61">
+        <v>1364</v>
+      </c>
+      <c r="D61" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>善各庄,来广营,1364,14号线</v>
       </c>
     </row>
   </sheetData>
@@ -17712,16 +18688,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B2138A-2B53-4721-98BF-7EE494102443}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17752,6 +18728,13 @@
       <c r="C2">
         <v>1100</v>
       </c>
+      <c r="D2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>巴沟,苏州街,1100,10号线</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -17763,6 +18746,13 @@
       <c r="C3">
         <v>950</v>
       </c>
+      <c r="D3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>苏州街,海淀黄庄,950,10号线</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -17774,6 +18764,13 @@
       <c r="C4">
         <v>976</v>
       </c>
+      <c r="D4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>海淀黄庄,知春里,976,10号线</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -17785,6 +18782,13 @@
       <c r="C5">
         <v>1058</v>
       </c>
+      <c r="D5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>知春里,知春路,1058,10号线</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -17796,6 +18800,13 @@
       <c r="C6">
         <v>1102</v>
       </c>
+      <c r="D6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>知春路,西土城,1102,10号线</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -17807,6 +18818,13 @@
       <c r="C7">
         <v>1330</v>
       </c>
+      <c r="D7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>西土城,牡丹园,1330,10号线</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -17818,6 +18836,13 @@
       <c r="C8">
         <v>967</v>
       </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>牡丹园,健德门,967,10号线</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -17829,6 +18854,13 @@
       <c r="C9">
         <v>1100</v>
       </c>
+      <c r="D9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>健德门,北土城,1100,10号线</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -17840,6 +18872,13 @@
       <c r="C10">
         <v>1020</v>
       </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>北土城,安贞门,1020,10号线</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -17851,6 +18890,13 @@
       <c r="C11">
         <v>982</v>
       </c>
+      <c r="D11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>安贞门,惠新西街南口,982,10号线</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -17862,6 +18908,13 @@
       <c r="C12">
         <v>1713</v>
       </c>
+      <c r="D12" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>惠新西街南口,芍药居,1713,10号线</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -17873,6 +18926,13 @@
       <c r="C13">
         <v>1003</v>
       </c>
+      <c r="D13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>芍药居,太阳宫,1003,10号线</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -17884,6 +18944,13 @@
       <c r="C14">
         <v>1759</v>
       </c>
+      <c r="D14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>太阳宫,三元桥,1759,10号线</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -17895,6 +18962,13 @@
       <c r="C15">
         <v>1535</v>
       </c>
+      <c r="D15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>三元桥,亮马桥,1535,10号线</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -17906,8 +18980,15 @@
       <c r="C16">
         <v>914</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>亮马桥,农业展览馆,914,10号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -17917,8 +18998,15 @@
       <c r="C17">
         <v>853</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>农业展览馆,团结湖,853,10号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -17928,8 +19016,15 @@
       <c r="C18">
         <v>1150</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>团结湖,呼家楼,1150,10号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -17939,8 +19034,15 @@
       <c r="C19">
         <v>734</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>呼家楼,金台夕照,734,10号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -17950,8 +19052,15 @@
       <c r="C20">
         <v>835</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>金台夕照,国贸,835,10号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -17961,8 +19070,15 @@
       <c r="C21">
         <v>1760</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>国贸,双井,1760,10号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -17972,8 +19088,15 @@
       <c r="C22">
         <v>1033</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>双井,劲松,1033,10号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -17983,8 +19106,15 @@
       <c r="C23">
         <v>1021</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>劲松,潘家园,1021,10号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -17994,8 +19124,15 @@
       <c r="C24">
         <v>1073</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>潘家园,十里河,1073,10号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -18005,8 +19142,15 @@
       <c r="C25">
         <v>1803</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>十里河,分钟寺,1803,10号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>194</v>
       </c>
@@ -18016,8 +19160,15 @@
       <c r="C26">
         <v>1060</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>分钟寺,成寿寺,1060,10号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -18027,8 +19178,15 @@
       <c r="C27">
         <v>1675</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>成寿寺,宋家庄,1675,10号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -18038,8 +19196,15 @@
       <c r="C28">
         <v>1273</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>宋家庄,石榴庄,1273,10号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -18049,8 +19214,15 @@
       <c r="C29">
         <v>1244</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>石榴庄,大红门,1244,10号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>197</v>
       </c>
@@ -18060,8 +19232,15 @@
       <c r="C30">
         <v>1124</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>大红门,角门东,1124,10号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -18071,8 +19250,15 @@
       <c r="C31">
         <v>1259</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>409</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>角门东,角门西,1259,10号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -18082,8 +19268,15 @@
       <c r="C32">
         <v>1688</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>409</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>角门西,草桥,1688,10号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>199</v>
       </c>
@@ -18093,8 +19286,15 @@
       <c r="C33">
         <v>1550</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>草桥,纪家庙,1550,10号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -18104,8 +19304,15 @@
       <c r="C34">
         <v>1119</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>409</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>纪家庙,首经贸,1119,10号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -18115,8 +19322,15 @@
       <c r="C35">
         <v>1717</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>409</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>首经贸,丰台站,1717,10号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -18126,8 +19340,15 @@
       <c r="C36">
         <v>954</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台站,泥洼,954,10号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -18137,8 +19358,15 @@
       <c r="C37">
         <v>749</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>泥洼,西局,749,10号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -18148,8 +19376,15 @@
       <c r="C38">
         <v>1587</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>409</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>西局,六里桥,1587,10号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -18159,8 +19394,15 @@
       <c r="C39">
         <v>2365</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>409</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>六里桥,莲花桥,2365,10号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -18170,8 +19412,15 @@
       <c r="C40">
         <v>1041</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>409</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>莲花桥,公主坟,1041,10号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -18181,8 +19430,15 @@
       <c r="C41">
         <v>2386</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>409</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>公主坟,西钓鱼台,2386,10号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -18192,8 +19448,15 @@
       <c r="C42">
         <v>1215</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>409</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>西钓鱼台,慈寿寺,1215,10号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -18203,8 +19466,15 @@
       <c r="C43">
         <v>1591</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>慈寿寺,车道沟,1591,10号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -18214,8 +19484,15 @@
       <c r="C44">
         <v>1206</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>车道沟,长春桥,1206,10号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -18225,8 +19502,15 @@
       <c r="C45">
         <v>778</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>409</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>长春桥,火器营,778,10号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -18235,6 +19519,823 @@
       </c>
       <c r="C46">
         <v>1441</v>
+      </c>
+      <c r="D46" t="s">
+        <v>409</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>火器营,巴沟,1441,10号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47">
+        <v>1100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>409</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>苏州街,巴沟,1100,10号线</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48">
+        <v>950</v>
+      </c>
+      <c r="D48" t="s">
+        <v>409</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>海淀黄庄,苏州街,950,10号线</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>976</v>
+      </c>
+      <c r="D49" t="s">
+        <v>409</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>知春里,海淀黄庄,976,10号线</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50">
+        <v>1058</v>
+      </c>
+      <c r="D50" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>知春路,知春里,1058,10号线</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51">
+        <v>1102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>409</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>西土城,知春路,1102,10号线</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52">
+        <v>1330</v>
+      </c>
+      <c r="D52" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>牡丹园,西土城,1330,10号线</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53">
+        <v>967</v>
+      </c>
+      <c r="D53" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>健德门,牡丹园,967,10号线</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54">
+        <v>1100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>北土城,健德门,1100,10号线</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55">
+        <v>1020</v>
+      </c>
+      <c r="D55" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>安贞门,北土城,1020,10号线</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56">
+        <v>982</v>
+      </c>
+      <c r="D56" t="s">
+        <v>409</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>惠新西街南口,安贞门,982,10号线</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57">
+        <v>1713</v>
+      </c>
+      <c r="D57" t="s">
+        <v>409</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>芍药居,惠新西街南口,1713,10号线</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58">
+        <v>1003</v>
+      </c>
+      <c r="D58" t="s">
+        <v>409</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>太阳宫,芍药居,1003,10号线</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59">
+        <v>1759</v>
+      </c>
+      <c r="D59" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>三元桥,太阳宫,1759,10号线</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60">
+        <v>1535</v>
+      </c>
+      <c r="D60" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>亮马桥,三元桥,1535,10号线</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61">
+        <v>914</v>
+      </c>
+      <c r="D61" t="s">
+        <v>409</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>农业展览馆,亮马桥,914,10号线</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62">
+        <v>853</v>
+      </c>
+      <c r="D62" t="s">
+        <v>409</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>团结湖,农业展览馆,853,10号线</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63">
+        <v>1150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>409</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>呼家楼,团结湖,1150,10号线</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64">
+        <v>734</v>
+      </c>
+      <c r="D64" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>金台夕照,呼家楼,734,10号线</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65">
+        <v>835</v>
+      </c>
+      <c r="D65" t="s">
+        <v>409</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>国贸,金台夕照,835,10号线</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>1760</v>
+      </c>
+      <c r="D66" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E91" si="1">_xlfn.CONCAT(A66,",",B66,",",C66,",",D66)</f>
+        <v>双井,国贸,1760,10号线</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67">
+        <v>1033</v>
+      </c>
+      <c r="D67" t="s">
+        <v>409</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>劲松,双井,1033,10号线</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68">
+        <v>1021</v>
+      </c>
+      <c r="D68" t="s">
+        <v>409</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>潘家园,劲松,1021,10号线</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69">
+        <v>1073</v>
+      </c>
+      <c r="D69" t="s">
+        <v>409</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>十里河,潘家园,1073,10号线</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70">
+        <v>1803</v>
+      </c>
+      <c r="D70" t="s">
+        <v>409</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>分钟寺,十里河,1803,10号线</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71">
+        <v>1060</v>
+      </c>
+      <c r="D71" t="s">
+        <v>409</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>成寿寺,分钟寺,1060,10号线</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72">
+        <v>1675</v>
+      </c>
+      <c r="D72" t="s">
+        <v>409</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>宋家庄,成寿寺,1675,10号线</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73">
+        <v>1273</v>
+      </c>
+      <c r="D73" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>石榴庄,宋家庄,1273,10号线</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74">
+        <v>1244</v>
+      </c>
+      <c r="D74" t="s">
+        <v>409</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>大红门,石榴庄,1244,10号线</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75">
+        <v>1124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>角门东,大红门,1124,10号线</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76">
+        <v>1259</v>
+      </c>
+      <c r="D76" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>角门西,角门东,1259,10号线</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77">
+        <v>1688</v>
+      </c>
+      <c r="D77" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>草桥,角门西,1688,10号线</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78">
+        <v>1550</v>
+      </c>
+      <c r="D78" t="s">
+        <v>409</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>纪家庙,草桥,1550,10号线</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79">
+        <v>1119</v>
+      </c>
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>首经贸,纪家庙,1119,10号线</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80">
+        <v>1717</v>
+      </c>
+      <c r="D80" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>丰台站,首经贸,1717,10号线</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81">
+        <v>954</v>
+      </c>
+      <c r="D81" t="s">
+        <v>409</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>泥洼,丰台站,954,10号线</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82">
+        <v>749</v>
+      </c>
+      <c r="D82" t="s">
+        <v>409</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>西局,泥洼,749,10号线</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83">
+        <v>1587</v>
+      </c>
+      <c r="D83" t="s">
+        <v>409</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>六里桥,西局,1587,10号线</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84">
+        <v>2365</v>
+      </c>
+      <c r="D84" t="s">
+        <v>409</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>莲花桥,六里桥,2365,10号线</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85">
+        <v>1041</v>
+      </c>
+      <c r="D85" t="s">
+        <v>409</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>公主坟,莲花桥,1041,10号线</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>2386</v>
+      </c>
+      <c r="D86" t="s">
+        <v>409</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>西钓鱼台,公主坟,2386,10号线</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87">
+        <v>1215</v>
+      </c>
+      <c r="D87" t="s">
+        <v>409</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>慈寿寺,西钓鱼台,1215,10号线</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1591</v>
+      </c>
+      <c r="D88" t="s">
+        <v>409</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>车道沟,慈寿寺,1591,10号线</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89">
+        <v>1206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>长春桥,车道沟,1206,10号线</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>407</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90">
+        <v>778</v>
+      </c>
+      <c r="D90" t="s">
+        <v>409</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>火器营,长春桥,778,10号线</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>408</v>
+      </c>
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91">
+        <v>1441</v>
+      </c>
+      <c r="D91" t="s">
+        <v>409</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>巴沟,火器营,1441,10号线</v>
       </c>
     </row>
   </sheetData>

--- a/neo4j-example/beijing-subway-2024/all.xlsx
+++ b/neo4j-example/beijing-subway-2024/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\neo4j-example\beijing-subway-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64849F87-AA3D-44C7-9B81-9B185F4E525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A63B35-BA46-41EC-8DBC-0FDE5225C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9768" yWindow="1680" windowWidth="11268" windowHeight="8880" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号线" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="415">
   <si>
     <t>古城</t>
   </si>
@@ -1324,6 +1324,14 @@
   </si>
   <si>
     <t>14号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东管头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景风门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3206,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085B354A-C487-40D3-B87B-2CFA4A1871C1}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3250,7 +3258,7 @@
         <v>412</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E61" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <f t="shared" ref="E2:E63" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
         <v>张郭庄,园博园,1345,14号线</v>
       </c>
     </row>
@@ -3454,28 +3462,21 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14">
-        <v>887</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
         <v>412</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>北京南站,陶然桥,887,14号线</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>228</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
       </c>
       <c r="C15">
         <v>887</v>
@@ -3485,833 +3486,862 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>陶然桥,北京南站,887,14号线</v>
+        <v>北京南站,陶然桥,887,14号线</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16">
-        <v>1063</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
         <v>412</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>陶然桥,永定门外,1063,14号线</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>1063</v>
+        <v>887</v>
       </c>
       <c r="D17" t="s">
         <v>412</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>永定门外,陶然桥,1063,14号线</v>
+        <v>陶然桥,北京南站,887,14号线</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
         <v>156</v>
       </c>
-      <c r="B18" t="s">
-        <v>229</v>
-      </c>
       <c r="C18">
-        <v>1119</v>
+        <v>1063</v>
       </c>
       <c r="D18" t="s">
         <v>412</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>永定门外,景泰,1119,14号线</v>
+        <v>陶然桥,永定门外,1063,14号线</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="C19">
-        <v>1119</v>
+        <v>1063</v>
       </c>
       <c r="D19" t="s">
         <v>412</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>景泰,永定门外,1119,14号线</v>
+        <v>永定门外,陶然桥,1063,14号线</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
       <c r="C20">
-        <v>1025</v>
+        <v>1119</v>
       </c>
       <c r="D20" t="s">
         <v>412</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>景泰,蒲黄榆,1025,14号线</v>
+        <v>永定门外,景泰,1119,14号线</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="C21">
-        <v>1025</v>
+        <v>1119</v>
       </c>
       <c r="D21" t="s">
         <v>412</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>蒲黄榆,景泰,1025,14号线</v>
+        <v>景泰,永定门外,1119,14号线</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
-        <v>230</v>
-      </c>
       <c r="C22">
-        <v>1486</v>
+        <v>1025</v>
       </c>
       <c r="D22" t="s">
         <v>412</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>蒲黄榆,方庄,1486,14号线</v>
+        <v>景泰,蒲黄榆,1025,14号线</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="C23">
-        <v>1486</v>
+        <v>1025</v>
       </c>
       <c r="D23" t="s">
         <v>412</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>方庄,蒲黄榆,1486,14号线</v>
+        <v>蒲黄榆,景泰,1025,14号线</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>230</v>
       </c>
-      <c r="B24" t="s">
-        <v>193</v>
-      </c>
       <c r="C24">
-        <v>1618</v>
+        <v>1486</v>
       </c>
       <c r="D24" t="s">
         <v>412</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>方庄,十里河,1618,14号线</v>
+        <v>蒲黄榆,方庄,1486,14号线</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="C25">
-        <v>1618</v>
+        <v>1486</v>
       </c>
       <c r="D25" t="s">
         <v>412</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>十里河,方庄,1618,14号线</v>
+        <v>方庄,蒲黄榆,1486,14号线</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
         <v>193</v>
       </c>
-      <c r="B26" t="s">
-        <v>231</v>
-      </c>
       <c r="C26">
-        <v>1147</v>
+        <v>1618</v>
       </c>
       <c r="D26" t="s">
         <v>412</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>十里河,南八里庄,1147,14号线</v>
+        <v>方庄,十里河,1618,14号线</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="C27">
-        <v>1147</v>
+        <v>1618</v>
       </c>
       <c r="D27" t="s">
         <v>412</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>南八里庄,十里河,1147,14号线</v>
+        <v>十里河,方庄,1618,14号线</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s">
         <v>231</v>
       </c>
-      <c r="B28" t="s">
-        <v>232</v>
-      </c>
       <c r="C28">
-        <v>1276</v>
+        <v>1147</v>
       </c>
       <c r="D28" t="s">
         <v>412</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>南八里庄,北工大西门,1276,14号线</v>
+        <v>十里河,南八里庄,1147,14号线</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C29">
-        <v>1276</v>
+        <v>1147</v>
       </c>
       <c r="D29" t="s">
         <v>412</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>北工大西门,南八里庄,1276,14号线</v>
+        <v>南八里庄,十里河,1147,14号线</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
         <v>232</v>
       </c>
-      <c r="B30" t="s">
-        <v>233</v>
-      </c>
       <c r="C30">
-        <v>1128</v>
+        <v>1276</v>
       </c>
       <c r="D30" t="s">
         <v>412</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>北工大西门,平乐园,1128,14号线</v>
+        <v>南八里庄,北工大西门,1276,14号线</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31">
-        <v>1128</v>
+        <v>1276</v>
       </c>
       <c r="D31" t="s">
         <v>412</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>平乐园,北工大西门,1128,14号线</v>
+        <v>北工大西门,南八里庄,1276,14号线</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
         <v>233</v>
       </c>
-      <c r="B32" t="s">
-        <v>119</v>
-      </c>
       <c r="C32">
-        <v>897</v>
+        <v>1128</v>
       </c>
       <c r="D32" t="s">
         <v>412</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>平乐园,九龙山,897,14号线</v>
+        <v>北工大西门,平乐园,1128,14号线</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33">
-        <v>897</v>
+        <v>1128</v>
       </c>
       <c r="D33" t="s">
         <v>412</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>九龙山,平乐园,897,14号线</v>
+        <v>平乐园,北工大西门,1128,14号线</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
       <c r="C34">
-        <v>1780</v>
+        <v>897</v>
       </c>
       <c r="D34" t="s">
         <v>412</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>九龙山,大望路,1780,14号线</v>
+        <v>平乐园,九龙山,897,14号线</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="C35">
-        <v>1780</v>
+        <v>897</v>
       </c>
       <c r="D35" t="s">
         <v>412</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>大望路,九龙山,1780,14号线</v>
+        <v>九龙山,平乐园,897,14号线</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
-        <v>234</v>
-      </c>
       <c r="C36">
-        <v>708</v>
+        <v>1780</v>
       </c>
       <c r="D36" t="s">
         <v>412</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>大望路,红庙,708,14号线</v>
+        <v>九龙山,大望路,1780,14号线</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>708</v>
+        <v>1780</v>
       </c>
       <c r="D37" t="s">
         <v>412</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>红庙,大望路,708,14号线</v>
+        <v>大望路,九龙山,1780,14号线</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>234</v>
       </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
       <c r="C38">
-        <v>894</v>
+        <v>708</v>
       </c>
       <c r="D38" t="s">
         <v>412</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>红庙,金台路,894,14号线</v>
+        <v>大望路,红庙,708,14号线</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>894</v>
+        <v>708</v>
       </c>
       <c r="D39" t="s">
         <v>412</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>金台路,红庙,894,14号线</v>
+        <v>红庙,大望路,708,14号线</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
-        <v>235</v>
-      </c>
       <c r="C40">
-        <v>1085</v>
+        <v>894</v>
       </c>
       <c r="D40" t="s">
         <v>412</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>金台路,朝阳公园,1085,14号线</v>
+        <v>红庙,金台路,894,14号线</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="C41">
-        <v>1085</v>
+        <v>894</v>
       </c>
       <c r="D41" t="s">
         <v>412</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>朝阳公园,金台路,1085,14号线</v>
+        <v>金台路,红庙,894,14号线</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
         <v>235</v>
       </c>
-      <c r="B42" t="s">
-        <v>236</v>
-      </c>
       <c r="C42">
-        <v>1221</v>
+        <v>1085</v>
       </c>
       <c r="D42" t="s">
         <v>412</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>朝阳公园,枣营,1221,14号线</v>
+        <v>金台路,朝阳公园,1085,14号线</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="C43">
-        <v>1221</v>
+        <v>1085</v>
       </c>
       <c r="D43" t="s">
         <v>412</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>枣营,朝阳公园,1221,14号线</v>
+        <v>朝阳公园,金台路,1085,14号线</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" t="s">
         <v>236</v>
       </c>
-      <c r="B44" t="s">
-        <v>237</v>
-      </c>
       <c r="C44">
-        <v>2173</v>
+        <v>1221</v>
       </c>
       <c r="D44" t="s">
         <v>412</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>枣营,东风北桥,2173,14号线</v>
+        <v>朝阳公园,枣营,1221,14号线</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45">
-        <v>2173</v>
+        <v>1221</v>
       </c>
       <c r="D45" t="s">
         <v>412</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>东风北桥,枣营,2173,14号线</v>
+        <v>枣营,朝阳公园,1221,14号线</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s">
         <v>237</v>
       </c>
-      <c r="B46" t="s">
-        <v>238</v>
-      </c>
       <c r="C46">
-        <v>1600</v>
+        <v>2173</v>
       </c>
       <c r="D46" t="s">
         <v>412</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>东风北桥,将台,1600,14号线</v>
+        <v>枣营,东风北桥,2173,14号线</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47">
-        <v>1600</v>
+        <v>2173</v>
       </c>
       <c r="D47" t="s">
         <v>412</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>将台,东风北桥,1600,14号线</v>
+        <v>东风北桥,枣营,2173,14号线</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" t="s">
         <v>238</v>
       </c>
-      <c r="B48" t="s">
-        <v>239</v>
-      </c>
       <c r="C48">
-        <v>1171</v>
+        <v>1600</v>
       </c>
       <c r="D48" t="s">
         <v>412</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>将台,高家园,1171,14号线</v>
+        <v>东风北桥,将台,1600,14号线</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49">
-        <v>1171</v>
+        <v>1600</v>
       </c>
       <c r="D49" t="s">
         <v>412</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>高家园,将台,1171,14号线</v>
+        <v>将台,东风北桥,1600,14号线</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s">
         <v>239</v>
       </c>
-      <c r="B50" t="s">
-        <v>240</v>
-      </c>
       <c r="C50">
-        <v>676</v>
+        <v>1171</v>
       </c>
       <c r="D50" t="s">
         <v>412</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>高家园,望京南,676,14号线</v>
+        <v>将台,高家园,1171,14号线</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C51">
-        <v>676</v>
+        <v>1171</v>
       </c>
       <c r="D51" t="s">
         <v>412</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>望京南,高家园,676,14号线</v>
+        <v>高家园,将台,1171,14号线</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" t="s">
         <v>240</v>
       </c>
-      <c r="B52" t="s">
-        <v>241</v>
-      </c>
       <c r="C52">
-        <v>1168</v>
+        <v>676</v>
       </c>
       <c r="D52" t="s">
         <v>412</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>望京南,阜通,1168,14号线</v>
+        <v>高家园,望京南,676,14号线</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53">
-        <v>1168</v>
+        <v>676</v>
       </c>
       <c r="D53" t="s">
         <v>412</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>阜通,望京南,1168,14号线</v>
+        <v>望京南,高家园,676,14号线</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" t="s">
         <v>241</v>
       </c>
-      <c r="B54" t="s">
-        <v>242</v>
-      </c>
       <c r="C54">
-        <v>903</v>
+        <v>1168</v>
       </c>
       <c r="D54" t="s">
         <v>412</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>阜通,望京,903,14号线</v>
+        <v>望京南,阜通,1168,14号线</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C55">
-        <v>903</v>
+        <v>1168</v>
       </c>
       <c r="D55" t="s">
         <v>412</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>望京,阜通,903,14号线</v>
+        <v>阜通,望京南,1168,14号线</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" t="s">
         <v>242</v>
       </c>
-      <c r="B56" t="s">
-        <v>243</v>
-      </c>
       <c r="C56">
-        <v>1283</v>
+        <v>903</v>
       </c>
       <c r="D56" t="s">
         <v>412</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>望京,东湖渠,1283,14号线</v>
+        <v>阜通,望京,903,14号线</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57">
-        <v>1283</v>
+        <v>903</v>
       </c>
       <c r="D57" t="s">
         <v>412</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>东湖渠,望京,1283,14号线</v>
+        <v>望京,阜通,903,14号线</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" t="s">
         <v>243</v>
       </c>
-      <c r="B58" t="s">
-        <v>244</v>
-      </c>
       <c r="C58">
-        <v>1100</v>
+        <v>1283</v>
       </c>
       <c r="D58" t="s">
         <v>412</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>东湖渠,来广营,1100,14号线</v>
+        <v>望京,东湖渠,1283,14号线</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C59">
-        <v>1100</v>
+        <v>1283</v>
       </c>
       <c r="D59" t="s">
         <v>412</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>来广营,东湖渠,1100,14号线</v>
+        <v>东湖渠,望京,1283,14号线</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" t="s">
         <v>244</v>
       </c>
-      <c r="B60" t="s">
-        <v>245</v>
-      </c>
       <c r="C60">
-        <v>1364</v>
+        <v>1100</v>
       </c>
       <c r="D60" t="s">
         <v>412</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>来广营,善各庄,1364,14号线</v>
+        <v>东湖渠,来广营,1100,14号线</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61">
-        <v>1364</v>
+        <v>1100</v>
       </c>
       <c r="D61" t="s">
         <v>412</v>
       </c>
       <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>来广营,东湖渠,1100,14号线</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62">
+        <v>1364</v>
+      </c>
+      <c r="D62" t="s">
+        <v>412</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>来广营,善各庄,1364,14号线</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63">
+        <v>1364</v>
+      </c>
+      <c r="D63" t="s">
+        <v>412</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>善各庄,来广营,1364,14号线</v>
       </c>

--- a/neo4j-example/beijing-subway-2024/all.xlsx
+++ b/neo4j-example/beijing-subway-2024/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-repository\learning-platform\neo4j-example\beijing-subway-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF7F41-CE00-4F87-881C-C24B57767345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55491A2E-CCF0-426F-A642-7525165F7785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="1530" windowWidth="14685" windowHeight="11520" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="1530" windowWidth="14685" windowHeight="11520" firstSheet="24" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号线" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="427">
   <si>
     <t>古城</t>
   </si>
@@ -1369,6 +1369,15 @@
   <si>
     <t>大望路</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东管头</t>
+  </si>
+  <si>
+    <t>菜户营</t>
+  </si>
+  <si>
+    <t>西铁营</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085B354A-C487-40D3-B87B-2CFA4A1871C1}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3708,7 +3717,7 @@
         <v>412</v>
       </c>
       <c r="E25" t="str">
-        <f>_xlfn.CONCAT(A25,",",B25,",",C25,",",D25)</f>
+        <f t="shared" ref="E25:E69" si="1">_xlfn.CONCAT(A25,",",B25,",",C25,",",D25)</f>
         <v>北京南站,陶然桥,887,14号线</v>
       </c>
     </row>
@@ -3726,7 +3735,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="str">
-        <f>_xlfn.CONCAT(A26,",",B26,",",C26,",",D26)</f>
+        <f t="shared" si="1"/>
         <v>北京南站,景风门,1200,14号线</v>
       </c>
     </row>
@@ -3744,7 +3753,7 @@
         <v>412</v>
       </c>
       <c r="E27" t="str">
-        <f>_xlfn.CONCAT(A27,",",B27,",",C27,",",D27)</f>
+        <f t="shared" si="1"/>
         <v>陶然桥,北京南站,887,14号线</v>
       </c>
     </row>
@@ -3762,7 +3771,7 @@
         <v>412</v>
       </c>
       <c r="E28" t="str">
-        <f>_xlfn.CONCAT(A28,",",B28,",",C28,",",D28)</f>
+        <f t="shared" si="1"/>
         <v>陶然桥,永定门外,1063,14号线</v>
       </c>
     </row>
@@ -3780,7 +3789,7 @@
         <v>412</v>
       </c>
       <c r="E29" t="str">
-        <f>_xlfn.CONCAT(A29,",",B29,",",C29,",",D29)</f>
+        <f t="shared" si="1"/>
         <v>永定门外,陶然桥,1063,14号线</v>
       </c>
     </row>
@@ -3798,7 +3807,7 @@
         <v>412</v>
       </c>
       <c r="E30" t="str">
-        <f>_xlfn.CONCAT(A30,",",B30,",",C30,",",D30)</f>
+        <f t="shared" si="1"/>
         <v>永定门外,景泰,1119,14号线</v>
       </c>
     </row>
@@ -3816,7 +3825,7 @@
         <v>412</v>
       </c>
       <c r="E31" t="str">
-        <f>_xlfn.CONCAT(A31,",",B31,",",C31,",",D31)</f>
+        <f t="shared" si="1"/>
         <v>景泰,永定门外,1119,14号线</v>
       </c>
     </row>
@@ -3834,7 +3843,7 @@
         <v>412</v>
       </c>
       <c r="E32" t="str">
-        <f>_xlfn.CONCAT(A32,",",B32,",",C32,",",D32)</f>
+        <f t="shared" si="1"/>
         <v>景泰,蒲黄榆,1025,14号线</v>
       </c>
     </row>
@@ -3852,7 +3861,7 @@
         <v>412</v>
       </c>
       <c r="E33" t="str">
-        <f>_xlfn.CONCAT(A33,",",B33,",",C33,",",D33)</f>
+        <f t="shared" si="1"/>
         <v>蒲黄榆,景泰,1025,14号线</v>
       </c>
     </row>
@@ -3870,7 +3879,7 @@
         <v>412</v>
       </c>
       <c r="E34" t="str">
-        <f>_xlfn.CONCAT(A34,",",B34,",",C34,",",D34)</f>
+        <f t="shared" si="1"/>
         <v>蒲黄榆,方庄,1486,14号线</v>
       </c>
     </row>
@@ -3888,7 +3897,7 @@
         <v>412</v>
       </c>
       <c r="E35" t="str">
-        <f>_xlfn.CONCAT(A35,",",B35,",",C35,",",D35)</f>
+        <f t="shared" si="1"/>
         <v>方庄,蒲黄榆,1486,14号线</v>
       </c>
     </row>
@@ -3906,7 +3915,7 @@
         <v>412</v>
       </c>
       <c r="E36" t="str">
-        <f>_xlfn.CONCAT(A36,",",B36,",",C36,",",D36)</f>
+        <f t="shared" si="1"/>
         <v>方庄,十里河,1618,14号线</v>
       </c>
     </row>
@@ -3924,7 +3933,7 @@
         <v>412</v>
       </c>
       <c r="E37" t="str">
-        <f>_xlfn.CONCAT(A37,",",B37,",",C37,",",D37)</f>
+        <f t="shared" si="1"/>
         <v>十里河,方庄,1618,14号线</v>
       </c>
     </row>
@@ -3942,7 +3951,7 @@
         <v>412</v>
       </c>
       <c r="E38" t="str">
-        <f>_xlfn.CONCAT(A38,",",B38,",",C38,",",D38)</f>
+        <f t="shared" si="1"/>
         <v>十里河,北工大西门,2400,14号线</v>
       </c>
     </row>
@@ -3960,7 +3969,7 @@
         <v>412</v>
       </c>
       <c r="E39" t="str">
-        <f>_xlfn.CONCAT(A39,",",B39,",",C39,",",D39)</f>
+        <f t="shared" si="1"/>
         <v>北工大西门,十里河,2400,14号线</v>
       </c>
     </row>
@@ -3978,7 +3987,7 @@
         <v>412</v>
       </c>
       <c r="E40" t="str">
-        <f>_xlfn.CONCAT(A40,",",B40,",",C40,",",D40)</f>
+        <f t="shared" si="1"/>
         <v>北工大西门,平乐园,1128,14号线</v>
       </c>
     </row>
@@ -3996,7 +4005,7 @@
         <v>412</v>
       </c>
       <c r="E41" t="str">
-        <f>_xlfn.CONCAT(A41,",",B41,",",C41,",",D41)</f>
+        <f t="shared" si="1"/>
         <v>平乐园,北工大西门,1128,14号线</v>
       </c>
     </row>
@@ -4014,7 +4023,7 @@
         <v>412</v>
       </c>
       <c r="E42" t="str">
-        <f>_xlfn.CONCAT(A42,",",B42,",",C42,",",D42)</f>
+        <f t="shared" si="1"/>
         <v>平乐园,九龙山,897,14号线</v>
       </c>
     </row>
@@ -4032,7 +4041,7 @@
         <v>412</v>
       </c>
       <c r="E43" t="str">
-        <f>_xlfn.CONCAT(A43,",",B43,",",C43,",",D43)</f>
+        <f t="shared" si="1"/>
         <v>九龙山,平乐园,897,14号线</v>
       </c>
     </row>
@@ -4050,7 +4059,7 @@
         <v>412</v>
       </c>
       <c r="E44" t="str">
-        <f>_xlfn.CONCAT(A44,",",B44,",",C44,",",D44)</f>
+        <f t="shared" si="1"/>
         <v>九龙山,大望路,1780,14号线</v>
       </c>
     </row>
@@ -4068,7 +4077,7 @@
         <v>412</v>
       </c>
       <c r="E45" t="str">
-        <f>_xlfn.CONCAT(A45,",",B45,",",C45,",",D45)</f>
+        <f t="shared" si="1"/>
         <v>大望路,九龙山,1780,14号线</v>
       </c>
     </row>
@@ -4086,7 +4095,7 @@
         <v>412</v>
       </c>
       <c r="E46" t="str">
-        <f>_xlfn.CONCAT(A46,",",B46,",",C46,",",D46)</f>
+        <f t="shared" si="1"/>
         <v>大望路,金台路,1600,14号线</v>
       </c>
     </row>
@@ -4104,7 +4113,7 @@
         <v>412</v>
       </c>
       <c r="E47" t="str">
-        <f>_xlfn.CONCAT(A47,",",B47,",",C47,",",D47)</f>
+        <f t="shared" si="1"/>
         <v>金台路,大望路,1600,14号线</v>
       </c>
     </row>
@@ -4122,7 +4131,7 @@
         <v>412</v>
       </c>
       <c r="E48" t="str">
-        <f>_xlfn.CONCAT(A48,",",B48,",",C48,",",D48)</f>
+        <f t="shared" si="1"/>
         <v>金台路,朝阳公园,1085,14号线</v>
       </c>
     </row>
@@ -4140,7 +4149,7 @@
         <v>412</v>
       </c>
       <c r="E49" t="str">
-        <f>_xlfn.CONCAT(A49,",",B49,",",C49,",",D49)</f>
+        <f t="shared" si="1"/>
         <v>朝阳公园,金台路,1085,14号线</v>
       </c>
     </row>
@@ -4158,7 +4167,7 @@
         <v>412</v>
       </c>
       <c r="E50" t="str">
-        <f>_xlfn.CONCAT(A50,",",B50,",",C50,",",D50)</f>
+        <f t="shared" si="1"/>
         <v>朝阳公园,枣营,1221,14号线</v>
       </c>
     </row>
@@ -4176,7 +4185,7 @@
         <v>412</v>
       </c>
       <c r="E51" t="str">
-        <f>_xlfn.CONCAT(A51,",",B51,",",C51,",",D51)</f>
+        <f t="shared" si="1"/>
         <v>枣营,朝阳公园,1221,14号线</v>
       </c>
     </row>
@@ -4194,7 +4203,7 @@
         <v>412</v>
       </c>
       <c r="E52" t="str">
-        <f>_xlfn.CONCAT(A52,",",B52,",",C52,",",D52)</f>
+        <f t="shared" si="1"/>
         <v>枣营,东风北桥,2173,14号线</v>
       </c>
     </row>
@@ -4212,7 +4221,7 @@
         <v>412</v>
       </c>
       <c r="E53" t="str">
-        <f>_xlfn.CONCAT(A53,",",B53,",",C53,",",D53)</f>
+        <f t="shared" si="1"/>
         <v>东风北桥,枣营,2173,14号线</v>
       </c>
     </row>
@@ -4230,7 +4239,7 @@
         <v>412</v>
       </c>
       <c r="E54" t="str">
-        <f>_xlfn.CONCAT(A54,",",B54,",",C54,",",D54)</f>
+        <f t="shared" si="1"/>
         <v>东风北桥,将台,1600,14号线</v>
       </c>
     </row>
@@ -4248,7 +4257,7 @@
         <v>412</v>
       </c>
       <c r="E55" t="str">
-        <f>_xlfn.CONCAT(A55,",",B55,",",C55,",",D55)</f>
+        <f t="shared" si="1"/>
         <v>将台,东风北桥,1600,14号线</v>
       </c>
     </row>
@@ -4266,7 +4275,7 @@
         <v>412</v>
       </c>
       <c r="E56" t="str">
-        <f>_xlfn.CONCAT(A56,",",B56,",",C56,",",D56)</f>
+        <f t="shared" si="1"/>
         <v>将台,高家园,1171,14号线</v>
       </c>
     </row>
@@ -4284,7 +4293,7 @@
         <v>412</v>
       </c>
       <c r="E57" t="str">
-        <f>_xlfn.CONCAT(A57,",",B57,",",C57,",",D57)</f>
+        <f t="shared" si="1"/>
         <v>高家园,将台,1171,14号线</v>
       </c>
     </row>
@@ -4302,7 +4311,7 @@
         <v>412</v>
       </c>
       <c r="E58" t="str">
-        <f>_xlfn.CONCAT(A58,",",B58,",",C58,",",D58)</f>
+        <f t="shared" si="1"/>
         <v>高家园,望京南,676,14号线</v>
       </c>
     </row>
@@ -4320,7 +4329,7 @@
         <v>412</v>
       </c>
       <c r="E59" t="str">
-        <f>_xlfn.CONCAT(A59,",",B59,",",C59,",",D59)</f>
+        <f t="shared" si="1"/>
         <v>望京南,高家园,676,14号线</v>
       </c>
     </row>
@@ -4338,7 +4347,7 @@
         <v>412</v>
       </c>
       <c r="E60" t="str">
-        <f>_xlfn.CONCAT(A60,",",B60,",",C60,",",D60)</f>
+        <f t="shared" si="1"/>
         <v>望京南,阜通,1168,14号线</v>
       </c>
     </row>
@@ -4356,7 +4365,7 @@
         <v>412</v>
       </c>
       <c r="E61" t="str">
-        <f>_xlfn.CONCAT(A61,",",B61,",",C61,",",D61)</f>
+        <f t="shared" si="1"/>
         <v>阜通,望京南,1168,14号线</v>
       </c>
     </row>
@@ -4374,7 +4383,7 @@
         <v>412</v>
       </c>
       <c r="E62" t="str">
-        <f>_xlfn.CONCAT(A62,",",B62,",",C62,",",D62)</f>
+        <f t="shared" si="1"/>
         <v>阜通,望京,903,14号线</v>
       </c>
     </row>
@@ -4392,7 +4401,7 @@
         <v>412</v>
       </c>
       <c r="E63" t="str">
-        <f>_xlfn.CONCAT(A63,",",B63,",",C63,",",D63)</f>
+        <f t="shared" si="1"/>
         <v>望京,阜通,903,14号线</v>
       </c>
     </row>
@@ -4410,7 +4419,7 @@
         <v>412</v>
       </c>
       <c r="E64" t="str">
-        <f>_xlfn.CONCAT(A64,",",B64,",",C64,",",D64)</f>
+        <f t="shared" si="1"/>
         <v>望京,东湖渠,1283,14号线</v>
       </c>
     </row>
@@ -4428,7 +4437,7 @@
         <v>412</v>
       </c>
       <c r="E65" t="str">
-        <f>_xlfn.CONCAT(A65,",",B65,",",C65,",",D65)</f>
+        <f t="shared" si="1"/>
         <v>东湖渠,望京,1283,14号线</v>
       </c>
     </row>
@@ -4446,7 +4455,7 @@
         <v>412</v>
       </c>
       <c r="E66" t="str">
-        <f>_xlfn.CONCAT(A66,",",B66,",",C66,",",D66)</f>
+        <f t="shared" si="1"/>
         <v>东湖渠,来广营,1100,14号线</v>
       </c>
     </row>
@@ -4464,7 +4473,7 @@
         <v>412</v>
       </c>
       <c r="E67" t="str">
-        <f>_xlfn.CONCAT(A67,",",B67,",",C67,",",D67)</f>
+        <f t="shared" si="1"/>
         <v>来广营,东湖渠,1100,14号线</v>
       </c>
     </row>
@@ -4482,7 +4491,7 @@
         <v>412</v>
       </c>
       <c r="E68" t="str">
-        <f>_xlfn.CONCAT(A68,",",B68,",",C68,",",D68)</f>
+        <f t="shared" si="1"/>
         <v>来广营,善各庄,1364,14号线</v>
       </c>
     </row>
@@ -4500,7 +4509,7 @@
         <v>412</v>
       </c>
       <c r="E69" t="str">
-        <f>_xlfn.CONCAT(A69,",",B69,",",C69,",",D69)</f>
+        <f t="shared" si="1"/>
         <v>善各庄,来广营,1364,14号线</v>
       </c>
     </row>
@@ -8463,10 +8472,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345BFAC-2BAA-4AA6-89D8-E64C470B1F4A}">
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13103,7 +13112,7 @@
         <v>389</v>
       </c>
       <c r="C386" t="str">
-        <f t="shared" ref="C386:C391" si="6">_xlfn.CONCAT(A386,",",B386)</f>
+        <f t="shared" ref="C386:C394" si="6">_xlfn.CONCAT(A386,",",B386)</f>
         <v>385,屈庄</v>
       </c>
     </row>
@@ -13165,6 +13174,42 @@
       <c r="C391" t="str">
         <f t="shared" si="6"/>
         <v>390,俸伯</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>424</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="6"/>
+        <v>391,东管头</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>425</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="6"/>
+        <v>392,菜户营</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>426</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="6"/>
+        <v>393,西铁营</v>
       </c>
     </row>
   </sheetData>

--- a/neo4j-example/beijing-subway-2024/all.xlsx
+++ b/neo4j-example/beijing-subway-2024/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-repository\learning-platform\neo4j-example\beijing-subway-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55491A2E-CCF0-426F-A642-7525165F7785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C6782C-B362-4867-9A47-36F3B4A0A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="1530" windowWidth="14685" windowHeight="11520" firstSheet="24" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号线" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="459">
   <si>
     <t>古城</t>
   </si>
@@ -1378,6 +1378,126 @@
   </si>
   <si>
     <t>西铁营</t>
+  </si>
+  <si>
+    <t>15号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴机场线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西郊线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科学城北</t>
+  </si>
+  <si>
+    <t>未来科学城北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科学城</t>
+  </si>
+  <si>
+    <t>未来科学城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天通苑东</t>
+  </si>
+  <si>
+    <t>天通苑东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河营</t>
+  </si>
+  <si>
+    <t>清河营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军营</t>
+  </si>
+  <si>
+    <t>红军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西坝河</t>
+  </si>
+  <si>
+    <t>西坝河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左家庄</t>
+  </si>
+  <si>
+    <t>左家庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人体育场</t>
+  </si>
+  <si>
+    <t>工人体育场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕房线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房山线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八通线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都机场线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄T1线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1704,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2500,7 +2620,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2647,7 +2767,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3261,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085B354A-C487-40D3-B87B-2CFA4A1871C1}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4521,224 +4641,718 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947208B1-0DF4-49DF-BB04-59C5DAF6EE8D}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>246</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>247</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E39" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>清华东路西口,六道口,1145,15号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>247</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>248</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1337</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>六道口,北沙滩,1337,15号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>248</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>147</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>北沙滩,奥林匹克公园,1999,15号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>249</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1369</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>奥林匹克公园,安立路,1369,15号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>938</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>安立路,大屯路东,938,15号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>250</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1087</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>大屯路东,关庄,1087,15号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>250</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>220</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2039</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>关庄,望京西,2039,15号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>242</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1759</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>望京西,望京,1759,15号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>242</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>251</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1652</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>望京,望京东,1652,15号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>251</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>252</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2295</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>望京东,崔各庄,2295,15号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>252</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2009</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>崔各庄,马泉营,2009,15号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>253</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>254</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3309</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>马泉营,孙河,3309,15号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>254</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>255</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3387</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>孙河,国展,3387,15号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>255</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>256</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1616</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>国展,花梨坎,1616,15号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>256</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>257</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3354</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>花梨坎,后沙峪,3354,15号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>257</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>258</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>4567</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>后沙峪,南法信,4567,15号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>258</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>259</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2712</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>南法信,石门,2712,15号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>259</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>260</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1332</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>石门,顺义,1332,15号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>260</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>261</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2441</v>
+      </c>
+      <c r="D20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>顺义,俸伯,2441,15号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21">
+        <v>1145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>六道口,清华东路西口,1145,15号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22">
+        <v>1337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>北沙滩,六道口,1337,15号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23">
+        <v>1999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>奥林匹克公园,北沙滩,1999,15号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24">
+        <v>1369</v>
+      </c>
+      <c r="D24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>安立路,奥林匹克公园,1369,15号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25">
+        <v>938</v>
+      </c>
+      <c r="D25" t="s">
+        <v>427</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>大屯路东,安立路,938,15号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>1087</v>
+      </c>
+      <c r="D26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>关庄,大屯路东,1087,15号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27">
+        <v>2039</v>
+      </c>
+      <c r="D27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>望京西,关庄,2039,15号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28">
+        <v>1759</v>
+      </c>
+      <c r="D28" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>望京,望京西,1759,15号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29">
+        <v>1652</v>
+      </c>
+      <c r="D29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>望京东,望京,1652,15号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30">
+        <v>2295</v>
+      </c>
+      <c r="D30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>崔各庄,望京东,2295,15号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31">
+        <v>2009</v>
+      </c>
+      <c r="D31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>马泉营,崔各庄,2009,15号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32">
+        <v>3309</v>
+      </c>
+      <c r="D32" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>孙河,马泉营,3309,15号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33">
+        <v>3387</v>
+      </c>
+      <c r="D33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>国展,孙河,3387,15号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34">
+        <v>1616</v>
+      </c>
+      <c r="D34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>花梨坎,国展,1616,15号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35">
+        <v>3354</v>
+      </c>
+      <c r="D35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>后沙峪,花梨坎,3354,15号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36">
+        <v>4567</v>
+      </c>
+      <c r="D36" t="s">
+        <v>427</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>南法信,后沙峪,4567,15号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37">
+        <v>2712</v>
+      </c>
+      <c r="D37" t="s">
+        <v>427</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>石门,南法信,2712,15号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38">
+        <v>1332</v>
+      </c>
+      <c r="D38" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>顺义,石门,1332,15号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39">
+        <v>2441</v>
+      </c>
+      <c r="D39" t="s">
+        <v>427</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>俸伯,顺义,2441,15号线</v>
       </c>
     </row>
   </sheetData>
@@ -4749,609 +5363,1006 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF47594-485F-4D2D-9A55-43F5C7A2E744}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>263</v>
-      </c>
-      <c r="C1">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
       </c>
       <c r="C2">
         <v>2653</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>北安河,温阳路,2653,16号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>263</v>
       </c>
       <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3">
+        <v>2653</v>
+      </c>
+      <c r="D3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E55" si="0">_xlfn.CONCAT(A3,",",B3,",",C3,",",D3)</f>
+        <v>温阳路,北安河,2653,16号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
         <v>264</v>
-      </c>
-      <c r="C3">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>263</v>
       </c>
       <c r="C4">
         <v>2310</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>温阳路,稻香湖路,2310,16号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>264</v>
       </c>
       <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5">
+        <v>2310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>稻香湖路,温阳路,2310,16号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
         <v>265</v>
-      </c>
-      <c r="C5">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" t="s">
-        <v>264</v>
       </c>
       <c r="C6">
         <v>2352</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>稻香湖路,屯佃,2352,16号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>265</v>
       </c>
       <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7">
+        <v>2352</v>
+      </c>
+      <c r="D7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>屯佃,稻香湖路,2352,16号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" t="s">
         <v>266</v>
-      </c>
-      <c r="C7">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" t="s">
-        <v>265</v>
       </c>
       <c r="C8">
         <v>1961</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>屯佃,永丰,1961,16号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>266</v>
       </c>
       <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9">
+        <v>1961</v>
+      </c>
+      <c r="D9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>永丰,屯佃,1961,16号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
         <v>267</v>
-      </c>
-      <c r="C9">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s">
-        <v>266</v>
       </c>
       <c r="C10">
         <v>1315</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>永丰,永丰南,1315,16号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>267</v>
       </c>
       <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11">
+        <v>1315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>永丰南,永丰,1315,16号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
         <v>268</v>
-      </c>
-      <c r="C11">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
       </c>
       <c r="C12">
         <v>2108</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>永丰南,西北旺,2108,16号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>268</v>
       </c>
       <c r="B13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13">
+        <v>2108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>西北旺,永丰南,2108,16号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
         <v>269</v>
-      </c>
-      <c r="C13">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" t="s">
-        <v>268</v>
       </c>
       <c r="C14">
         <v>2196</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>西北旺,马连洼,2196,16号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>269</v>
       </c>
       <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15">
+        <v>2196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>马连洼,西北旺,2196,16号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
         <v>270</v>
-      </c>
-      <c r="C15">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" t="s">
-        <v>269</v>
       </c>
       <c r="C16">
         <v>1517</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>马连洼,农大南路,1517,16号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>270</v>
       </c>
       <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17">
+        <v>1517</v>
+      </c>
+      <c r="D17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>农大南路,马连洼,1517,16号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
-      </c>
-      <c r="C17">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>270</v>
       </c>
       <c r="C18">
         <v>2690</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>428</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>农大南路,西苑,2690,16号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19">
+        <v>2690</v>
+      </c>
+      <c r="D19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>西苑,农大南路,2690,16号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>271</v>
-      </c>
-      <c r="C19">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
       </c>
       <c r="C20">
         <v>1980</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>西苑,万泉河桥,1980,16号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>271</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>1980</v>
+      </c>
+      <c r="D21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>万泉河桥,西苑,1980,16号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
         <v>177</v>
-      </c>
-      <c r="C21">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" t="s">
-        <v>271</v>
       </c>
       <c r="C22">
         <v>1486</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>万泉河桥,苏州街,1486,16号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>177</v>
       </c>
       <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23">
+        <v>1486</v>
+      </c>
+      <c r="D23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>苏州街,万泉河桥,1486,16号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
         <v>272</v>
-      </c>
-      <c r="C23">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" t="s">
-        <v>177</v>
       </c>
       <c r="C24">
         <v>1497</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>苏州街,苏州桥,1497,16号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>272</v>
       </c>
       <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25">
+        <v>1497</v>
+      </c>
+      <c r="D25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>苏州桥,苏州街,1497,16号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s">
         <v>273</v>
-      </c>
-      <c r="C25">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" t="s">
-        <v>272</v>
       </c>
       <c r="C26">
         <v>1610</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>苏州桥,万寿寺,1610,16号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>273</v>
       </c>
       <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27">
+        <v>1610</v>
+      </c>
+      <c r="D27" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>万寿寺,苏州桥,1610,16号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
-      </c>
-      <c r="C27">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>273</v>
       </c>
       <c r="C28">
         <v>1721</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>428</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>万寿寺,国家图书馆,1721,16号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="B29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29">
+        <v>1721</v>
+      </c>
+      <c r="D29" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>国家图书馆,万寿寺,1721,16号线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>89</v>
-      </c>
-      <c r="C29">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
       </c>
       <c r="C30">
         <v>1589</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>国家图书馆,二里沟,1589,16号线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
       <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>1589</v>
+      </c>
+      <c r="D31" t="s">
+        <v>428</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>二里沟,国家图书馆,1589,16号线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
         <v>274</v>
-      </c>
-      <c r="C31">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
       </c>
       <c r="C32">
         <v>1046</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>428</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>二里沟,甘家口,1046,16号线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>274</v>
       </c>
       <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33">
+        <v>1046</v>
+      </c>
+      <c r="D33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>甘家口,二里沟,1046,16号线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
         <v>275</v>
-      </c>
-      <c r="C33">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" t="s">
-        <v>274</v>
       </c>
       <c r="C34">
         <v>970</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>428</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>甘家口,玉渊潭东门,970,16号线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>275</v>
       </c>
       <c r="B35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35">
+        <v>970</v>
+      </c>
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>玉渊潭东门,甘家口,970,16号线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
         <v>8</v>
-      </c>
-      <c r="C35">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
       </c>
       <c r="C36">
         <v>565</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>428</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>玉渊潭东门,木樨地,565,16号线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37">
+        <v>565</v>
+      </c>
+      <c r="D37" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>木樨地,玉渊潭东门,565,16号线</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
-      </c>
-      <c r="C37">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
       </c>
       <c r="C38">
         <v>2004</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>428</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>木樨地,达官营,2004,16号线</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
       <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>2004</v>
+      </c>
+      <c r="D39" t="s">
+        <v>428</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>达官营,木樨地,2004,16号线</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
         <v>276</v>
-      </c>
-      <c r="C39">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
       </c>
       <c r="C40">
         <v>1552</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>428</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>达官营,红莲南路,1552,16号线</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>276</v>
       </c>
       <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41">
+        <v>1552</v>
+      </c>
+      <c r="D41" t="s">
+        <v>428</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>红莲南路,达官营,1552,16号线</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" t="s">
         <v>277</v>
-      </c>
-      <c r="C41">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>277</v>
-      </c>
-      <c r="B42" t="s">
-        <v>276</v>
       </c>
       <c r="C42">
         <v>1241</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>红莲南路,丽泽商务区,1241,16号线</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>277</v>
       </c>
       <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43">
+        <v>1241</v>
+      </c>
+      <c r="D43" t="s">
+        <v>428</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>丽泽商务区,红莲南路,1241,16号线</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" t="s">
         <v>278</v>
-      </c>
-      <c r="C43">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" t="s">
-        <v>277</v>
       </c>
       <c r="C44">
         <v>1803</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>428</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>丽泽商务区,东管头南,1803,16号线</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>278</v>
       </c>
       <c r="B45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45">
+        <v>1803</v>
+      </c>
+      <c r="D45" t="s">
+        <v>428</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>东管头南,丽泽商务区,1803,16号线</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" t="s">
         <v>202</v>
-      </c>
-      <c r="C45">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" t="s">
-        <v>278</v>
       </c>
       <c r="C46">
         <v>1794</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>428</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>东管头南,丰台站,1794,16号线</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>202</v>
       </c>
       <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47">
+        <v>1794</v>
+      </c>
+      <c r="D47" t="s">
+        <v>428</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台站,东管头南,1794,16号线</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
         <v>171</v>
-      </c>
-      <c r="C47">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" t="s">
-        <v>202</v>
       </c>
       <c r="C48">
         <v>1420</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>428</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台站,丰台南路,1420,16号线</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>171</v>
       </c>
       <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49">
+        <v>1420</v>
+      </c>
+      <c r="D49" t="s">
+        <v>428</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台南路,丰台站,1420,16号线</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
         <v>279</v>
-      </c>
-      <c r="C49">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>279</v>
-      </c>
-      <c r="B50" t="s">
-        <v>171</v>
       </c>
       <c r="C50">
         <v>1187</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>428</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>丰台南路,富丰桥,1187,16号线</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>279</v>
       </c>
       <c r="B51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51">
+        <v>1187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>428</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>富丰桥,丰台南路,1187,16号线</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B52" t="s">
         <v>280</v>
-      </c>
-      <c r="C51">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>280</v>
-      </c>
-      <c r="B52" t="s">
-        <v>279</v>
       </c>
       <c r="C52">
         <v>1226</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>428</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>富丰桥,看丹,1226,16号线</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
       <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53">
+        <v>1226</v>
+      </c>
+      <c r="D53" t="s">
+        <v>428</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>看丹,富丰桥,1226,16号线</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" t="s">
         <v>281</v>
-      </c>
-      <c r="C53">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>281</v>
-      </c>
-      <c r="B54" t="s">
-        <v>280</v>
       </c>
       <c r="C54">
         <v>1442</v>
+      </c>
+      <c r="D54" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>看丹,榆树庄,1442,16号线</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55">
+        <v>1442</v>
+      </c>
+      <c r="D55" t="s">
+        <v>428</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>榆树庄,看丹,1442,16号线</v>
       </c>
     </row>
   </sheetData>
@@ -5362,147 +6373,538 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D9EEC-41BF-4E0B-85CF-A84D91B624DA}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2">
+        <v>1700</v>
+      </c>
+      <c r="D2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E17" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>未来科学城北,未来科学城,1700,17号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3">
+        <v>1700</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>未来科学城,未来科学城北,1700,17号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4">
+        <v>5900</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>未来科学城,天通苑东,5900,17号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5">
+        <v>5900</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>天通苑东,未来科学城,5900,17号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>天通苑东,清河营,2000,17号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>清河营,天通苑东,2000,17号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8">
+        <v>1900</v>
+      </c>
+      <c r="D8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>清河营,红军营,1900,17号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9">
+        <v>1900</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>红军营,清河营,1900,17号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10">
+        <v>7600</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>红军营,太阳宫,7600,17号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11">
+        <v>7600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>太阳宫,红军营,7600,17号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12">
+        <v>1100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>太阳宫,西坝河,1100,17号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13">
+        <v>1100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>西坝河,太阳宫,1100,17号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14">
+        <v>2500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>西坝河,左家庄,2500,17号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15">
+        <v>2500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>左家庄,西坝河,2500,17号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16">
+        <v>2200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>429</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>左家庄,工人体育场,2200,17号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17">
+        <v>2200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>工人体育场,左家庄,2200,17号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B18" t="s">
         <v>282</v>
       </c>
-      <c r="C1">
+      <c r="C18">
         <v>1672</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ref="E18:E29" si="1">_xlfn.CONCAT(A18,",",B18,",",C18,",",D18)</f>
+        <v>十里河,周家庄,1672,17号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>282</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B19" t="s">
         <v>193</v>
       </c>
-      <c r="C2">
+      <c r="C19">
         <v>1672</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D19" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>周家庄,十里河,1672,17号线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>282</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B20" t="s">
         <v>283</v>
       </c>
-      <c r="C3">
+      <c r="C20">
         <v>2349</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>周家庄,十八里店,2349,17号线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>283</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B21" t="s">
         <v>282</v>
       </c>
-      <c r="C4">
+      <c r="C21">
         <v>2349</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>十八里店,周家庄,2349,17号线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>283</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B22" t="s">
         <v>284</v>
       </c>
-      <c r="C5">
+      <c r="C22">
         <v>5840</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D22" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>十八里店,北神树,5840,17号线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>284</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B23" t="s">
         <v>283</v>
       </c>
-      <c r="C6">
+      <c r="C23">
         <v>5840</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>北神树,十八里店,5840,17号线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>284</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B24" t="s">
         <v>285</v>
       </c>
-      <c r="C7">
+      <c r="C24">
         <v>2334</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>北神树,次渠北,2334,17号线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>285</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B25" t="s">
         <v>284</v>
       </c>
-      <c r="C8">
+      <c r="C25">
         <v>2334</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D25" t="s">
+        <v>429</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>次渠北,北神树,2334,17号线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>285</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="C9">
+      <c r="C26">
         <v>1455</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>次渠北,次渠,1455,17号线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>286</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B27" t="s">
         <v>285</v>
       </c>
-      <c r="C10">
+      <c r="C27">
         <v>1455</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>次渠,次渠北,1455,17号线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>286</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B28" t="s">
         <v>287</v>
       </c>
-      <c r="C11">
+      <c r="C28">
         <v>2125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>次渠,嘉会湖,2125,17号线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>287</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B29" t="s">
         <v>286</v>
       </c>
-      <c r="C12">
+      <c r="C29">
         <v>2125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>429</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>嘉会湖,次渠,2125,17号线</v>
       </c>
     </row>
   </sheetData>
@@ -5513,213 +6915,358 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB0FECA-204D-46F2-BD01-427664ED28CE}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>181</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>288</v>
-      </c>
-      <c r="C1">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
       </c>
       <c r="C2">
         <v>920</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E19" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>牡丹园,北太平庄,920,19号线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>288</v>
       </c>
       <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3">
+        <v>920</v>
+      </c>
+      <c r="D3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>北太平庄,牡丹园,920,19号线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="C3">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
       </c>
       <c r="C4">
         <v>2450</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>北太平庄,积水潭,2450,19号线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5">
+        <v>2450</v>
+      </c>
+      <c r="D5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>积水潭,北太平庄,2450,19号线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="C5">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
       </c>
       <c r="C6">
         <v>1590</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>积水潭,平安里,1590,19号线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1590</v>
+      </c>
+      <c r="D7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>平安里,积水潭,1590,19号线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>289</v>
-      </c>
-      <c r="C7">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
       </c>
       <c r="C8">
         <v>2710</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>平安里,太平桥,2710,19号线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>289</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>2710</v>
+      </c>
+      <c r="D9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>太平桥,平安里,2710,19号线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
         <v>290</v>
-      </c>
-      <c r="C9">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" t="s">
-        <v>289</v>
       </c>
       <c r="C10">
         <v>2140</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>太平桥,牛街,2140,19号线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>290</v>
       </c>
       <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11">
+        <v>2140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>牛街,太平桥,2140,19号线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" t="s">
         <v>291</v>
-      </c>
-      <c r="C11">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" t="s">
-        <v>290</v>
       </c>
       <c r="C12">
         <v>2960</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>牛街,景风门,2960,19号线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>291</v>
       </c>
       <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13">
+        <v>2960</v>
+      </c>
+      <c r="D13" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>景风门,牛街,2960,19号线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
         <v>199</v>
-      </c>
-      <c r="C13">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" t="s">
-        <v>291</v>
       </c>
       <c r="C14">
         <v>2680</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>景风门,草桥,2680,19号线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>199</v>
       </c>
       <c r="B15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15">
+        <v>2680</v>
+      </c>
+      <c r="D15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>草桥,景风门,2680,19号线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
         <v>292</v>
-      </c>
-      <c r="C15">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" t="s">
-        <v>199</v>
       </c>
       <c r="C16">
         <v>2650</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>草桥,新发地,2650,19号线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>292</v>
       </c>
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17">
+        <v>2650</v>
+      </c>
+      <c r="D17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>新发地,草桥,2650,19号线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
         <v>293</v>
-      </c>
-      <c r="C17">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" t="s">
-        <v>292</v>
       </c>
       <c r="C18">
         <v>2740</v>
+      </c>
+      <c r="D18" t="s">
+        <v>430</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>新发地,新宫,2740,19号线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19">
+        <v>2740</v>
+      </c>
+      <c r="D19" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>新宫,新发地,2740,19号线</v>
       </c>
     </row>
   </sheetData>
@@ -5730,59 +7277,107 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6AFB87-553A-4D10-964C-C920C4D1A2D4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>294</v>
-      </c>
-      <c r="C1">
-        <v>13028</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
       </c>
       <c r="C2">
         <v>13028</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E5" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>草桥,大兴新城,13028,大兴机场线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>294</v>
       </c>
       <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>13028</v>
+      </c>
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>大兴新城,草桥,13028,大兴机场线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
         <v>295</v>
-      </c>
-      <c r="C3">
-        <v>25303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" t="s">
-        <v>294</v>
       </c>
       <c r="C4">
         <v>25303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>大兴新城,大兴机场,25303,大兴机场线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5">
+        <v>25303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>大兴机场,大兴新城,25303,大兴机场线</v>
       </c>
     </row>
   </sheetData>
@@ -5793,125 +7388,214 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71743B8-E939-4361-B6C4-55BE47B09DDD}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>296</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>297</v>
-      </c>
-      <c r="C1">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>296</v>
       </c>
       <c r="C2">
         <v>983</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>香山,植物园,983,西郊线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>297</v>
       </c>
       <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3">
+        <v>983</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>植物园,香山,983,西郊线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" t="s">
         <v>298</v>
-      </c>
-      <c r="C3">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" t="s">
-        <v>297</v>
       </c>
       <c r="C4">
         <v>1733</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>植物园,万安,1733,西郊线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>298</v>
       </c>
       <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5">
+        <v>1733</v>
+      </c>
+      <c r="D5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>万安,植物园,1733,西郊线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
         <v>299</v>
-      </c>
-      <c r="C5">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" t="s">
-        <v>298</v>
       </c>
       <c r="C6">
         <v>1550</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>万安,茶棚,1550,西郊线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>299</v>
       </c>
       <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7">
+        <v>1550</v>
+      </c>
+      <c r="D7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>茶棚,万安,1550,西郊线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
         <v>300</v>
-      </c>
-      <c r="C7">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
       </c>
       <c r="C8">
         <v>1505</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>茶棚,颐和园西门,1505,西郊线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>300</v>
       </c>
       <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>1505</v>
+      </c>
+      <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>颐和园西门,茶棚,1505,西郊线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" t="s">
         <v>175</v>
-      </c>
-      <c r="C9">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" t="s">
-        <v>300</v>
       </c>
       <c r="C10">
         <v>2922</v>
+      </c>
+      <c r="D10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>颐和园西门,巴沟,2922,西郊线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>2922</v>
+      </c>
+      <c r="D11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>巴沟,颐和园西门,2922,西郊线</v>
       </c>
     </row>
   </sheetData>
@@ -5922,89 +7606,285 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB618E9D-3D2C-4C12-9AD4-C60A924BA988}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>301</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>302</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1297</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E15" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>石厂,小园,1297,S1线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>303</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1266</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>小园,栗园庄,1266,S1线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>304</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1044</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>栗园庄,上岸,1044,S1线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>305</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1065</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>上岸,桥户营,1065,S1线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>306</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>834</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>桥户营,四道桥,834,S1线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>306</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2736</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>四道桥,金安桥,2736,S1线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1419</v>
+      </c>
+      <c r="D8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>金安桥,苹果园,1419,S1线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9">
+        <v>1297</v>
+      </c>
+      <c r="D9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>小园,石厂,1297,S1线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10">
+        <v>1266</v>
+      </c>
+      <c r="D10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>栗园庄,小园,1266,S1线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11">
+        <v>1044</v>
+      </c>
+      <c r="D11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>上岸,栗园庄,1044,S1线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12">
+        <v>1065</v>
+      </c>
+      <c r="D12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>桥户营,上岸,1065,S1线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13">
+        <v>834</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>四道桥,桥户营,834,S1线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14">
+        <v>2736</v>
+      </c>
+      <c r="D14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>金安桥,四道桥,2736,S1线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>1419</v>
+      </c>
+      <c r="D15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>苹果园,金安桥,1419,S1线</v>
       </c>
     </row>
   </sheetData>
@@ -6018,7 +7898,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6702,191 +8582,322 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C50BCE7-4502-4A35-AD36-CAC26FBF6A9A}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>307</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>308</v>
-      </c>
-      <c r="C1">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" t="s">
-        <v>307</v>
       </c>
       <c r="C2">
         <v>2076</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E17" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>燕山,房山城关,2076,燕房线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>308</v>
       </c>
       <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3">
+        <v>2076</v>
+      </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>房山城关,燕山,2076,燕房线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
         <v>309</v>
-      </c>
-      <c r="C3">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
       </c>
       <c r="C4">
         <v>1777</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>房山城关,饶乐府,1777,燕房线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>309</v>
       </c>
       <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5">
+        <v>1777</v>
+      </c>
+      <c r="D5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>饶乐府,房山城关,1777,燕房线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
         <v>310</v>
-      </c>
-      <c r="C5">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" t="s">
-        <v>309</v>
       </c>
       <c r="C6">
         <v>984</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>饶乐府,马各庄,984,燕房线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>310</v>
       </c>
       <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7">
+        <v>984</v>
+      </c>
+      <c r="D7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>马各庄,饶乐府,984,燕房线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
         <v>311</v>
-      </c>
-      <c r="C7">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" t="s">
-        <v>310</v>
       </c>
       <c r="C8">
         <v>2087</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>马各庄,大石河东,2087,燕房线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>311</v>
       </c>
       <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9">
+        <v>2087</v>
+      </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>大石河东,马各庄,2087,燕房线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
         <v>312</v>
-      </c>
-      <c r="C9">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" t="s">
-        <v>311</v>
       </c>
       <c r="C10">
         <v>1929</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>大石河东,星城,1929,燕房线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>312</v>
       </c>
       <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11">
+        <v>1929</v>
+      </c>
+      <c r="D11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>星城,大石河东,1929,燕房线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
         <v>313</v>
-      </c>
-      <c r="C11">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" t="s">
-        <v>312</v>
       </c>
       <c r="C12">
         <v>1649</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>星城,阎村,1649,燕房线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>313</v>
       </c>
       <c r="B13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13">
+        <v>1649</v>
+      </c>
+      <c r="D13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>阎村,星城,1649,燕房线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
         <v>314</v>
-      </c>
-      <c r="C13">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" t="s">
-        <v>313</v>
       </c>
       <c r="C14">
         <v>1210</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>阎村,紫草坞,1210,燕房线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>314</v>
       </c>
       <c r="B15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15">
+        <v>1210</v>
+      </c>
+      <c r="D15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>紫草坞,阎村,1210,燕房线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" t="s">
         <v>315</v>
-      </c>
-      <c r="C15">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>314</v>
       </c>
       <c r="C16">
         <v>1541</v>
+      </c>
+      <c r="D16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>紫草坞,阎村东,1541,燕房线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17">
+        <v>1541</v>
+      </c>
+      <c r="D17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>阎村东,紫草坞,1541,燕房线</v>
       </c>
     </row>
   </sheetData>
@@ -6897,257 +8908,430 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCA5666-4B5A-4C68-B529-114EBC276913}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>293</v>
-      </c>
-      <c r="C1">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
       </c>
       <c r="C2">
         <v>2798</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E23" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>公益西桥,新宫,2798,大兴线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>293</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>2798</v>
+      </c>
+      <c r="D3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>新宫,公益西桥,2798,大兴线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
         <v>316</v>
-      </c>
-      <c r="C3">
-        <v>5102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" t="s">
-        <v>293</v>
       </c>
       <c r="C4">
         <v>5102</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>新宫,西红门,5102,大兴线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>316</v>
       </c>
       <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5">
+        <v>5102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>西红门,新宫,5102,大兴线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
         <v>317</v>
-      </c>
-      <c r="C5">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" t="s">
-        <v>316</v>
       </c>
       <c r="C6">
         <v>1810</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>西红门,高米店北,1810,大兴线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>317</v>
       </c>
       <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7">
+        <v>1810</v>
+      </c>
+      <c r="D7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>高米店北,西红门,1810,大兴线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
         <v>318</v>
-      </c>
-      <c r="C7">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" t="s">
-        <v>317</v>
       </c>
       <c r="C8">
         <v>1128</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>高米店北,高米店南,1128,大兴线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>318</v>
       </c>
       <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9">
+        <v>1128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>高米店南,高米店北,1128,大兴线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
         <v>319</v>
-      </c>
-      <c r="C9">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B10" t="s">
-        <v>318</v>
       </c>
       <c r="C10">
         <v>1096</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>高米店南,枣园,1096,大兴线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>319</v>
       </c>
       <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11">
+        <v>1096</v>
+      </c>
+      <c r="D11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>枣园,高米店南,1096,大兴线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
         <v>320</v>
-      </c>
-      <c r="C11">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
       </c>
       <c r="C12">
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>枣园,清源路,1200,大兴线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>320</v>
       </c>
       <c r="B13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13">
+        <v>1200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>清源路,枣园,1200,大兴线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
         <v>321</v>
-      </c>
-      <c r="C13">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B14" t="s">
-        <v>320</v>
       </c>
       <c r="C14">
         <v>1214</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>清源路,黄村西大街,1214,大兴线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>321</v>
       </c>
       <c r="B15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>1214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>黄村西大街,清源路,1214,大兴线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
         <v>322</v>
-      </c>
-      <c r="C15">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" t="s">
-        <v>321</v>
       </c>
       <c r="C16">
         <v>987</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>黄村西大街,黄村火车站,987,大兴线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>322</v>
       </c>
       <c r="B17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17">
+        <v>987</v>
+      </c>
+      <c r="D17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>黄村火车站,黄村西大街,987,大兴线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
         <v>323</v>
-      </c>
-      <c r="C17">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" t="s">
-        <v>322</v>
       </c>
       <c r="C18">
         <v>2035</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>黄村火车站,义和庄,2035,大兴线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>323</v>
       </c>
       <c r="B19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19">
+        <v>2035</v>
+      </c>
+      <c r="D19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>义和庄,黄村火车站,2035,大兴线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
         <v>324</v>
-      </c>
-      <c r="C19">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" t="s">
-        <v>323</v>
       </c>
       <c r="C20">
         <v>2918</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>义和庄,生物医药基地,2918,大兴线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>324</v>
       </c>
       <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21">
+        <v>2918</v>
+      </c>
+      <c r="D21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>生物医药基地,义和庄,2918,大兴线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
         <v>325</v>
-      </c>
-      <c r="C21">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" t="s">
-        <v>324</v>
       </c>
       <c r="C22">
         <v>1811</v>
+      </c>
+      <c r="D22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>生物医药基地,天宫院,1811,大兴线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23">
+        <v>1811</v>
+      </c>
+      <c r="D23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>天宫院,生物医药基地,1811,大兴线</v>
       </c>
     </row>
   </sheetData>
@@ -7158,411 +9342,682 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EE3E08-B8B6-4069-9096-C23ECA7F2DE4}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>326</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>327</v>
-      </c>
-      <c r="C1">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
       </c>
       <c r="C2">
         <v>1213</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E37" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>昌平西山口,十三陵景区,1213,昌平线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>327</v>
       </c>
       <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3">
+        <v>1213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>十三陵景区,昌平西山口,1213,昌平线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
         <v>328</v>
-      </c>
-      <c r="C3">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" t="s">
-        <v>327</v>
       </c>
       <c r="C4">
         <v>3508</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>十三陵景区,昌平,3508,昌平线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>328</v>
       </c>
       <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5">
+        <v>3508</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>昌平,十三陵景区,3508,昌平线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" t="s">
         <v>329</v>
-      </c>
-      <c r="C5">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B6" t="s">
-        <v>328</v>
       </c>
       <c r="C6">
         <v>2433</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>昌平,昌平东关,2433,昌平线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>329</v>
       </c>
       <c r="B7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7">
+        <v>2433</v>
+      </c>
+      <c r="D7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>昌平东关,昌平,2433,昌平线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
         <v>330</v>
-      </c>
-      <c r="C7">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B8" t="s">
-        <v>329</v>
       </c>
       <c r="C8">
         <v>1683</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>昌平东关,北邵洼,1683,昌平线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>330</v>
       </c>
       <c r="B9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9">
+        <v>1683</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>北邵洼,昌平东关,1683,昌平线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
         <v>331</v>
-      </c>
-      <c r="C9">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>330</v>
       </c>
       <c r="C10">
         <v>1958</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>北邵洼,南邵,1958,昌平线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>331</v>
       </c>
       <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11">
+        <v>1958</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>南邵,北邵洼,1958,昌平线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" t="s">
         <v>332</v>
-      </c>
-      <c r="C11">
-        <v>5357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" t="s">
-        <v>331</v>
       </c>
       <c r="C12">
         <v>5357</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>南邵,沙河高教园,5357,昌平线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>332</v>
       </c>
       <c r="B13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13">
+        <v>5357</v>
+      </c>
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>沙河高教园,南邵,5357,昌平线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" t="s">
         <v>333</v>
-      </c>
-      <c r="C13">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" t="s">
-        <v>332</v>
       </c>
       <c r="C14">
         <v>1964</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>沙河高教园,沙河,1964,昌平线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>333</v>
       </c>
       <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15">
+        <v>1964</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>沙河,沙河高教园,1964,昌平线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
         <v>334</v>
-      </c>
-      <c r="C15">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B16" t="s">
-        <v>333</v>
       </c>
       <c r="C16">
         <v>2025</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>沙河,巩华城,2025,昌平线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>334</v>
       </c>
       <c r="B17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17">
+        <v>2025</v>
+      </c>
+      <c r="D17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>巩华城,沙河,2025,昌平线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
         <v>138</v>
-      </c>
-      <c r="C17">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="s">
-        <v>334</v>
       </c>
       <c r="C18">
         <v>3799</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>巩华城,朱辛庄,3799,昌平线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>138</v>
       </c>
       <c r="B19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19">
+        <v>3799</v>
+      </c>
+      <c r="D19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>朱辛庄,巩华城,3799,昌平线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
         <v>335</v>
-      </c>
-      <c r="C19">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
       </c>
       <c r="C20">
         <v>2367</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>朱辛庄,生命科学园,2367,昌平线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>335</v>
       </c>
       <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21">
+        <v>2367</v>
+      </c>
+      <c r="D21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>生命科学园,朱辛庄,2367,昌平线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
         <v>216</v>
-      </c>
-      <c r="C21">
-        <v>5440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>335</v>
       </c>
       <c r="C22">
         <v>5440</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>生命科学园,西二旗,5440,昌平线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>216</v>
       </c>
       <c r="B23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23">
+        <v>5440</v>
+      </c>
+      <c r="D23" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>西二旗,生命科学园,5440,昌平线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
         <v>215</v>
-      </c>
-      <c r="C23">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" t="s">
-        <v>216</v>
       </c>
       <c r="C24">
         <v>1545</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>西二旗,清河站,1545,昌平线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>215</v>
       </c>
       <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25">
+        <v>1545</v>
+      </c>
+      <c r="D25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>清河站,西二旗,1545,昌平线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
         <v>336</v>
-      </c>
-      <c r="C25">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" t="s">
-        <v>215</v>
       </c>
       <c r="C26">
         <v>1652</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>清河站,朱房北,1652,昌平线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>336</v>
       </c>
       <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27">
+        <v>1652</v>
+      </c>
+      <c r="D27" t="s">
+        <v>453</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>朱房北,清河站,1652,昌平线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" t="s">
         <v>337</v>
-      </c>
-      <c r="C27">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" t="s">
-        <v>336</v>
       </c>
       <c r="C28">
         <v>1158</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>朱房北,清河小营桥,1158,昌平线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>337</v>
       </c>
       <c r="B29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29">
+        <v>1158</v>
+      </c>
+      <c r="D29" t="s">
+        <v>453</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>清河小营桥,朱房北,1158,昌平线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" t="s">
         <v>338</v>
-      </c>
-      <c r="C29">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B30" t="s">
-        <v>337</v>
       </c>
       <c r="C30">
         <v>2366</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>453</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>清河小营桥,学知园,2366,昌平线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>338</v>
       </c>
       <c r="B31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31">
+        <v>2366</v>
+      </c>
+      <c r="D31" t="s">
+        <v>453</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>学知园,清河小营桥,2366,昌平线</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" t="s">
         <v>247</v>
-      </c>
-      <c r="C31">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B32" t="s">
-        <v>338</v>
       </c>
       <c r="C32">
         <v>1683</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>学知园,六道口,1683,昌平线</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>247</v>
       </c>
       <c r="B33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33">
+        <v>1683</v>
+      </c>
+      <c r="D33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>六道口,学知园,1683,昌平线</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" t="s">
         <v>339</v>
-      </c>
-      <c r="C33">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B34" t="s">
-        <v>247</v>
       </c>
       <c r="C34">
         <v>1312</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>六道口,学院桥,1312,昌平线</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>339</v>
       </c>
       <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35">
+        <v>1312</v>
+      </c>
+      <c r="D35" t="s">
+        <v>453</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>学院桥,六道口,1312,昌平线</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="s">
         <v>180</v>
-      </c>
-      <c r="C35">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" t="s">
-        <v>339</v>
       </c>
       <c r="C36">
         <v>1481</v>
+      </c>
+      <c r="D36" t="s">
+        <v>453</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>学院桥,西土城,1481,昌平线</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37">
+        <v>1481</v>
+      </c>
+      <c r="D37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>西土城,学院桥,1481,昌平线</v>
       </c>
     </row>
   </sheetData>
@@ -7573,180 +10028,574 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0FEFA-66E3-4685-A61E-AA1BD964C142}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>278</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1137</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E31" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>首经贸,东管头南,1137,房山线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>340</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>201</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1793</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>花乡东桥,首经贸,1793,房山线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>341</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>340</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1668</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>白盆窑,花乡东桥,1668,房山线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>174</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>341</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1138</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>郭公庄,白盆窑,1138,房山线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>342</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>174</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1405</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>大葆台,郭公庄,1405,房山线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>343</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>342</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>6466</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>稻田,大葆台,6466,房山线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>344</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>343</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4042</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>长阳,稻田,4042,房山线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>345</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>344</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2150</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>篱笆房,长阳,2150,房山线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>346</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>345</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1474</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>广阳城,篱笆房,1474,房山线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>347</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>346</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2003</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡大学城北,广阳城,2003,房山线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>348</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>347</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1188</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡大学城,良乡大学城北,1188,房山线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>349</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>348</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1739</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡大学城西,良乡大学城,1739,房山线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>350</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>349</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1333</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡南关,良乡大学城西,1333,房山线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>351</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>350</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1331</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>苏庄,良乡南关,1331,房山线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>315</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>351</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>阎村东,苏庄,2200,房山线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17">
+        <v>1137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>东管头南,首经贸,1137,房山线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18">
+        <v>1793</v>
+      </c>
+      <c r="D18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>首经贸,花乡东桥,1793,房山线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19">
+        <v>1668</v>
+      </c>
+      <c r="D19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>花乡东桥,白盆窑,1668,房山线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20">
+        <v>1138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>白盆窑,郭公庄,1138,房山线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21">
+        <v>1405</v>
+      </c>
+      <c r="D21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>郭公庄,大葆台,1405,房山线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22">
+        <v>6466</v>
+      </c>
+      <c r="D22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>大葆台,稻田,6466,房山线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23">
+        <v>4042</v>
+      </c>
+      <c r="D23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>稻田,长阳,4042,房山线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24">
+        <v>2150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>长阳,篱笆房,2150,房山线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25">
+        <v>1474</v>
+      </c>
+      <c r="D25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>篱笆房,广阳城,1474,房山线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26">
+        <v>2003</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>广阳城,良乡大学城北,2003,房山线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27">
+        <v>1188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡大学城北,良乡大学城,1188,房山线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28">
+        <v>1739</v>
+      </c>
+      <c r="D28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡大学城,良乡大学城西,1739,房山线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29">
+        <v>1333</v>
+      </c>
+      <c r="D29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡大学城西,良乡南关,1333,房山线</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30">
+        <v>1331</v>
+      </c>
+      <c r="D30" t="s">
+        <v>454</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>良乡南关,苏庄,1331,房山线</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31">
+        <v>2200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>454</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>苏庄,阎村东,2200,房山线</v>
       </c>
     </row>
   </sheetData>
@@ -7757,158 +10606,502 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8F1ED5-A207-4F1D-AF72-209B5EF2200F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>352</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2631</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E27" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>肖村,宋家庄,2631,亦庄线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>353</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>352</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1275</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>小红门,肖村,1275,亦庄线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>354</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>353</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2366</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>旧宫,小红门,2366,亦庄线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>355</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>354</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1982</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄桥,旧宫,1982,亦庄线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>356</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>355</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>993</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄文化园,亦庄桥,993,亦庄线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>357</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>356</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1538</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>万源街,亦庄文化园,1538,亦庄线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>358</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>357</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1280</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>荣京东街,万源街,1280,亦庄线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>359</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>358</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1354</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>荣昌东街,荣京东街,1354,亦庄线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>360</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>359</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2338</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>同济南路,荣昌东街,2338,亦庄线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>361</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>360</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2265</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>经海路,同济南路,2265,亦庄线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>362</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>361</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2086</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>次渠南,经海路,2086,亦庄线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>286</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>362</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1281</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>次渠,次渠南,1281,亦庄线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>363</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>286</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄火车站,次渠,1334,亦庄线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15">
+        <v>2631</v>
+      </c>
+      <c r="D15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>宋家庄,肖村,2631,亦庄线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16">
+        <v>1275</v>
+      </c>
+      <c r="D16" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>肖村,小红门,1275,亦庄线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17">
+        <v>2366</v>
+      </c>
+      <c r="D17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>小红门,旧宫,2366,亦庄线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18">
+        <v>1982</v>
+      </c>
+      <c r="D18" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>旧宫,亦庄桥,1982,亦庄线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19">
+        <v>993</v>
+      </c>
+      <c r="D19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄桥,亦庄文化园,993,亦庄线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20">
+        <v>1538</v>
+      </c>
+      <c r="D20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄文化园,万源街,1538,亦庄线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21">
+        <v>1280</v>
+      </c>
+      <c r="D21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>万源街,荣京东街,1280,亦庄线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22">
+        <v>1354</v>
+      </c>
+      <c r="D22" t="s">
+        <v>455</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>荣京东街,荣昌东街,1354,亦庄线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23">
+        <v>2338</v>
+      </c>
+      <c r="D23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>荣昌东街,同济南路,2338,亦庄线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24">
+        <v>2265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>455</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>同济南路,经海路,2265,亦庄线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25">
+        <v>2086</v>
+      </c>
+      <c r="D25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>经海路,次渠南,2086,亦庄线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26">
+        <v>1281</v>
+      </c>
+      <c r="D26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>次渠南,次渠,1281,亦庄线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27">
+        <v>1334</v>
+      </c>
+      <c r="D27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>次渠,亦庄火车站,1334,亦庄线</v>
       </c>
     </row>
   </sheetData>
@@ -7919,170 +11112,539 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5F039C-06B4-42E3-A0FC-0731D70DD0C9}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1715</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E29" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>四惠,四惠东,1715,八通线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>364</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1375</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>四惠东,高碑店,1375,八通线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>364</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>365</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>高碑店,传媒大学,2002,八通线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>365</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>366</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1894</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>传媒大学,双桥,1894,八通线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>366</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>367</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1912</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>双桥,管庄,1912,八通线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>367</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>368</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1763</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>管庄,八里桥,1763,八通线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>368</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>369</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1700</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>八里桥,通州北苑,1700,八通线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>369</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>370</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1465</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>通州北苑,果园,1465,八通线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>370</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>371</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>990</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>果园,九棵树,990,八通线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>371</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>372</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1225</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>九棵树,梨园,1225,八通线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>372</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>373</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1257</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>梨园,临河里,1257,八通线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>373</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>374</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>776</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>临河里,土桥,776,八通线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>374</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2238</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>土桥,花庄,2238,八通线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>136</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1863</v>
+      </c>
+      <c r="D15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>花庄,环球度假区,1863,八通线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1715</v>
+      </c>
+      <c r="D16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>四惠东,四惠,1715,八通线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1375</v>
+      </c>
+      <c r="D17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>高碑店,四惠东,1375,八通线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18">
+        <v>2002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>传媒大学,高碑店,2002,八通线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19">
+        <v>1894</v>
+      </c>
+      <c r="D19" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>双桥,传媒大学,1894,八通线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20">
+        <v>1912</v>
+      </c>
+      <c r="D20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>管庄,双桥,1912,八通线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21">
+        <v>1763</v>
+      </c>
+      <c r="D21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>八里桥,管庄,1763,八通线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22">
+        <v>1700</v>
+      </c>
+      <c r="D22" t="s">
+        <v>456</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>通州北苑,八里桥,1700,八通线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23">
+        <v>1465</v>
+      </c>
+      <c r="D23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>果园,通州北苑,1465,八通线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24">
+        <v>990</v>
+      </c>
+      <c r="D24" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>九棵树,果园,990,八通线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25">
+        <v>1225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>梨园,九棵树,1225,八通线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26">
+        <v>1257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>临河里,梨园,1257,八通线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27">
+        <v>776</v>
+      </c>
+      <c r="D27" t="s">
+        <v>456</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>土桥,临河里,776,八通线</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28">
+        <v>2238</v>
+      </c>
+      <c r="D28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>花庄,土桥,2238,八通线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>1863</v>
+      </c>
+      <c r="D29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>环球度假区,花庄,1863,八通线</v>
       </c>
     </row>
   </sheetData>
@@ -8093,70 +11655,215 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F93614-5F72-46E5-926B-1E89D5C7996A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1622</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>北新桥,东直门,1622,首都机场线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>186</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>3022</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>东直门,三元桥,3022,首都机场线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>18322</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>三元桥,3号航站楼,18322,首都机场线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>375</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>7243</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>3号航站楼,2号航站楼,7243,首都机场线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>376</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>186</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>20738</v>
+      </c>
+      <c r="D6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>2号航站楼,三元桥,20738,首都机场线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>1622</v>
+      </c>
+      <c r="D7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>东直门,北新桥,1622,首都机场线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>3022</v>
+      </c>
+      <c r="D8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>三元桥,东直门,3022,首都机场线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9">
+        <v>18322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>3号航站楼,三元桥,18322,首都机场线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10">
+        <v>7243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>2号航站楼,3号航站楼,7243,首都机场线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11">
+        <v>20738</v>
+      </c>
+      <c r="D11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>三元桥,2号航站楼,20738,首都机场线</v>
       </c>
     </row>
   </sheetData>
@@ -8167,301 +11874,503 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF32AE7-C07D-47E8-8B9F-BE1494692B2B}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1,",",B1,",",C1,",",D1)</f>
+        <v>startname,endname,length,line</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>377</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>378</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1055</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E27" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>定海园,定海园西,1055,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>378</v>
       </c>
       <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3">
+        <v>880</v>
+      </c>
+      <c r="D3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>定海园西,定海园,880,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1083</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>定海园西,经海一路,1083,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>379</v>
       </c>
       <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5">
+        <v>1257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>经海一路,定海园西,1257,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s">
         <v>380</v>
-      </c>
-      <c r="C5">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" t="s">
-        <v>379</v>
       </c>
       <c r="C6">
         <v>1368</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>经海一路,亦创会展中心,1368,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>380</v>
       </c>
       <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7">
+        <v>1368</v>
+      </c>
+      <c r="D7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>亦创会展中心,经海一路,1368,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
         <v>359</v>
-      </c>
-      <c r="C7">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" t="s">
-        <v>380</v>
       </c>
       <c r="C8">
         <v>608</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>亦创会展中心,荣昌东街,608,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>359</v>
       </c>
       <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9">
+        <v>608</v>
+      </c>
+      <c r="D9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>荣昌东街,亦创会展中心,608,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" t="s">
         <v>381</v>
-      </c>
-      <c r="C9">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" t="s">
-        <v>359</v>
       </c>
       <c r="C10">
         <v>604</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>荣昌东街,亦庄同仁,604,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>381</v>
       </c>
       <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11">
+        <v>604</v>
+      </c>
+      <c r="D11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄同仁,荣昌东街,604,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" t="s">
         <v>382</v>
-      </c>
-      <c r="C11">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B12" t="s">
-        <v>381</v>
       </c>
       <c r="C12">
         <v>1228</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>亦庄同仁,鹿圈东,1228,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>382</v>
       </c>
       <c r="B13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13">
+        <v>1228</v>
+      </c>
+      <c r="D13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>鹿圈东,亦庄同仁,1228,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
         <v>383</v>
-      </c>
-      <c r="C13">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>383</v>
-      </c>
-      <c r="B14" t="s">
-        <v>382</v>
       </c>
       <c r="C14">
         <v>739</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>鹿圈东,泰河路,739,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>383</v>
       </c>
       <c r="B15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15">
+        <v>739</v>
+      </c>
+      <c r="D15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>泰河路,鹿圈东,739,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" t="s">
         <v>384</v>
-      </c>
-      <c r="C15">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" t="s">
-        <v>383</v>
       </c>
       <c r="C16">
         <v>606</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>泰河路,九号村,606,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>384</v>
       </c>
       <c r="B17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17">
+        <v>606</v>
+      </c>
+      <c r="D17" t="s">
+        <v>458</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>九号村,泰河路,606,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
         <v>385</v>
-      </c>
-      <c r="C17">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" t="s">
-        <v>384</v>
       </c>
       <c r="C18">
         <v>993</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>九号村,四海庄,993,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>385</v>
       </c>
       <c r="B19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19">
+        <v>993</v>
+      </c>
+      <c r="D19" t="s">
+        <v>458</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>四海庄,九号村,993,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" t="s">
         <v>386</v>
-      </c>
-      <c r="C19">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>386</v>
-      </c>
-      <c r="B20" t="s">
-        <v>385</v>
       </c>
       <c r="C20">
         <v>638</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>458</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>四海庄,太和桥北,638,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>386</v>
       </c>
       <c r="B21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21">
+        <v>638</v>
+      </c>
+      <c r="D21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>太和桥北,四海庄,638,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" t="s">
         <v>387</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1208</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>387</v>
-      </c>
-      <c r="B22" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>太和桥北,瑞合庄,1208,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>387</v>
       </c>
       <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23">
+        <v>1375</v>
+      </c>
+      <c r="D23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>瑞合庄,太和桥北,1375,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" t="s">
         <v>388</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>798</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B24" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>瑞合庄,融兴街,798,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>388</v>
       </c>
       <c r="B25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C25">
+        <v>802</v>
+      </c>
+      <c r="D25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>融兴街,瑞合庄,802,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B26" t="s">
         <v>389</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>787</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>融兴街,屈庄,787,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>389</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>388</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>801</v>
+      </c>
+      <c r="D27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>屈庄,融兴街,801,亦庄T1线</v>
       </c>
     </row>
   </sheetData>
@@ -8472,10 +12381,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345BFAC-2BAA-4AA6-89D8-E64C470B1F4A}">
-  <dimension ref="A1:C394"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13112,7 +17021,7 @@
         <v>389</v>
       </c>
       <c r="C386" t="str">
-        <f t="shared" ref="C386:C394" si="6">_xlfn.CONCAT(A386,",",B386)</f>
+        <f t="shared" ref="C386:C402" si="6">_xlfn.CONCAT(A386,",",B386)</f>
         <v>385,屈庄</v>
       </c>
     </row>
@@ -13210,6 +17119,102 @@
       <c r="C394" t="str">
         <f t="shared" si="6"/>
         <v>393,西铁营</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>434</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="6"/>
+        <v>394,未来科学城北</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>436</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="6"/>
+        <v>395,未来科学城</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>438</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="6"/>
+        <v>396,天通苑东</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>440</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="6"/>
+        <v>397,清河营</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>442</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="6"/>
+        <v>398,红军营</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>445</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="6"/>
+        <v>399,西坝河</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>447</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="6"/>
+        <v>400,左家庄</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>449</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="6"/>
+        <v>401,工人体育场</v>
       </c>
     </row>
   </sheetData>
@@ -13224,7 +17229,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14090,7 +18095,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14920,7 +18925,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16146,7 +20151,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17228,7 +21233,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18454,7 +22459,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18924,7 +22929,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/neo4j-example/beijing-subway-2024/all.xlsx
+++ b/neo4j-example/beijing-subway-2024/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-repository\learning-platform\neo4j-example\beijing-subway-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F46A0B-5596-43FD-BBD7-E8B0F3FFCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1205FB35-18F2-48B9-8278-C52D128E216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="1530" windowWidth="14685" windowHeight="11520" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号线八通线" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="464">
   <si>
     <t>古城</t>
   </si>
@@ -1487,6 +1487,34 @@
   </si>
   <si>
     <t>4号线大兴线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪泰庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榆树庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛平城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老观里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈庄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1812,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1845,1225 +1873,1261 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="C2">
-        <v>1921</v>
+        <v>2300</v>
       </c>
       <c r="D2" t="s">
         <v>455</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E64" si="0">_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
-        <v>古城,八角游乐园,1921,1号线八通线</v>
+        <f>_xlfn.CONCAT(A2,",",B2,",",C2,",",D2)</f>
+        <v>苹果园,古城,2300,1号线八通线</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3">
-        <v>1953</v>
+        <v>1921</v>
       </c>
       <c r="D3" t="s">
         <v>455</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>八角游乐园,八宝山,1953,1号线八通线</v>
+        <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(A3,",",B3,",",C3,",",D3)</f>
+        <v>古城,八角游乐园,1921,1号线八通线</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4">
-        <v>1479</v>
+        <v>1953</v>
       </c>
       <c r="D4" t="s">
         <v>455</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>八宝山,玉泉路,1479,1号线八通线</v>
+        <v>八角游乐园,八宝山,1953,1号线八通线</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
       <c r="C5">
-        <v>1810</v>
+        <v>1479</v>
       </c>
       <c r="D5" t="s">
         <v>455</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>玉泉路,五棵松,1810,1号线八通线</v>
+        <v>八宝山,玉泉路,1479,1号线八通线</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6">
-        <v>1778</v>
+        <v>1810</v>
       </c>
       <c r="D6" t="s">
         <v>455</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>五棵松,万寿路,1778,1号线八通线</v>
+        <v>玉泉路,五棵松,1810,1号线八通线</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>1313</v>
+        <v>1778</v>
       </c>
       <c r="D7" t="s">
         <v>455</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>万寿路,公主坟,1313,1号线八通线</v>
+        <v>五棵松,万寿路,1778,1号线八通线</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="C8">
-        <v>1172</v>
+        <v>1313</v>
       </c>
       <c r="D8" t="s">
         <v>455</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>公主坟,军事博物馆,1172,1号线八通线</v>
+        <v>万寿路,公主坟,1313,1号线八通线</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
       <c r="C9">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="D9" t="s">
         <v>455</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>军事博物馆,木樨地,1166,1号线八通线</v>
+        <v>公主坟,军事博物馆,1172,1号线八通线</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10">
-        <v>1291</v>
+        <v>1166</v>
       </c>
       <c r="D10" t="s">
         <v>455</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>木樨地,南礼士路,1291,1号线八通线</v>
+        <v>军事博物馆,木樨地,1166,1号线八通线</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11">
-        <v>424</v>
+        <v>1291</v>
       </c>
       <c r="D11" t="s">
         <v>455</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>南礼士路,复兴门,424,1号线八通线</v>
+        <v>木樨地,南礼士路,1291,1号线八通线</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
       <c r="C12">
-        <v>1596</v>
+        <v>424</v>
       </c>
       <c r="D12" t="s">
         <v>455</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>复兴门,西单,1596,1号线八通线</v>
+        <v>南礼士路,复兴门,424,1号线八通线</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
       <c r="C13">
-        <v>1217</v>
+        <v>1596</v>
       </c>
       <c r="D13" t="s">
         <v>455</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>西单,天安门西,1217,1号线八通线</v>
+        <v>复兴门,西单,1596,1号线八通线</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
       <c r="C14">
-        <v>925</v>
+        <v>1217</v>
       </c>
       <c r="D14" t="s">
         <v>455</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>天安门西,天安门东,925,1号线八通线</v>
+        <v>西单,天安门西,1217,1号线八通线</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
       <c r="C15">
-        <v>852</v>
+        <v>925</v>
       </c>
       <c r="D15" t="s">
         <v>455</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>天安门东,王府井,852,1号线八通线</v>
+        <v>天安门西,天安门东,925,1号线八通线</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16">
-        <v>774</v>
+        <v>852</v>
       </c>
       <c r="D16" t="s">
         <v>455</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>王府井,东单,774,1号线八通线</v>
+        <v>天安门东,王府井,852,1号线八通线</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
       <c r="C17">
-        <v>1230</v>
+        <v>774</v>
       </c>
       <c r="D17" t="s">
         <v>455</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>东单,建国门,1230,1号线八通线</v>
+        <v>王府井,东单,774,1号线八通线</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
       <c r="C18">
-        <v>1377</v>
+        <v>1230</v>
       </c>
       <c r="D18" t="s">
         <v>455</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>建国门,永安里,1377,1号线八通线</v>
+        <v>东单,建国门,1230,1号线八通线</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
       <c r="C19">
-        <v>790</v>
+        <v>1377</v>
       </c>
       <c r="D19" t="s">
         <v>455</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>永安里,国贸,790,1号线八通线</v>
+        <v>建国门,永安里,1377,1号线八通线</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
       <c r="C20">
-        <v>1385</v>
+        <v>790</v>
       </c>
       <c r="D20" t="s">
         <v>455</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>国贸,大望路,1385,1号线八通线</v>
+        <v>永安里,国贸,790,1号线八通线</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
       <c r="C21">
-        <v>1673</v>
+        <v>1385</v>
       </c>
       <c r="D21" t="s">
         <v>455</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>大望路,四惠,1673,1号线八通线</v>
+        <v>国贸,大望路,1385,1号线八通线</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
       <c r="C22">
-        <v>1714</v>
+        <v>1673</v>
       </c>
       <c r="D22" t="s">
         <v>455</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>四惠,四惠东,1714,1号线八通线</v>
+        <v>大望路,四惠,1673,1号线八通线</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>364</v>
-      </c>
       <c r="C23">
-        <v>1375</v>
+        <v>1714</v>
       </c>
       <c r="D23" t="s">
         <v>455</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>四惠东,高碑店,1375,1号线八通线</v>
+        <v>四惠,四惠东,1714,1号线八通线</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>364</v>
       </c>
-      <c r="B24" t="s">
-        <v>365</v>
-      </c>
       <c r="C24">
-        <v>2002</v>
+        <v>1375</v>
       </c>
       <c r="D24" t="s">
         <v>455</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>高碑店,传媒大学,2002,1号线八通线</v>
+        <v>四惠东,高碑店,1375,1号线八通线</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
         <v>365</v>
       </c>
-      <c r="B25" t="s">
-        <v>366</v>
-      </c>
       <c r="C25">
-        <v>1894</v>
+        <v>2002</v>
       </c>
       <c r="D25" t="s">
         <v>455</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>传媒大学,双桥,1894,1号线八通线</v>
+        <v>高碑店,传媒大学,2002,1号线八通线</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="s">
         <v>366</v>
       </c>
-      <c r="B26" t="s">
-        <v>367</v>
-      </c>
       <c r="C26">
-        <v>1912</v>
+        <v>1894</v>
       </c>
       <c r="D26" t="s">
         <v>455</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>双桥,管庄,1912,1号线八通线</v>
+        <v>传媒大学,双桥,1894,1号线八通线</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
         <v>367</v>
       </c>
-      <c r="B27" t="s">
-        <v>368</v>
-      </c>
       <c r="C27">
-        <v>1763</v>
+        <v>1912</v>
       </c>
       <c r="D27" t="s">
         <v>455</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>管庄,八里桥,1763,1号线八通线</v>
+        <v>双桥,管庄,1912,1号线八通线</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" t="s">
         <v>368</v>
       </c>
-      <c r="B28" t="s">
-        <v>369</v>
-      </c>
       <c r="C28">
-        <v>1700</v>
+        <v>1763</v>
       </c>
       <c r="D28" t="s">
         <v>455</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>八里桥,通州北苑,1700,1号线八通线</v>
+        <v>管庄,八里桥,1763,1号线八通线</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" t="s">
         <v>369</v>
       </c>
-      <c r="B29" t="s">
-        <v>370</v>
-      </c>
       <c r="C29">
-        <v>1465</v>
+        <v>1700</v>
       </c>
       <c r="D29" t="s">
         <v>455</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>通州北苑,果园,1465,1号线八通线</v>
+        <v>八里桥,通州北苑,1700,1号线八通线</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="s">
         <v>370</v>
       </c>
-      <c r="B30" t="s">
-        <v>371</v>
-      </c>
       <c r="C30">
-        <v>990</v>
+        <v>1465</v>
       </c>
       <c r="D30" t="s">
         <v>455</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>果园,九棵树,990,1号线八通线</v>
+        <v>通州北苑,果园,1465,1号线八通线</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="s">
         <v>371</v>
       </c>
-      <c r="B31" t="s">
-        <v>372</v>
-      </c>
       <c r="C31">
-        <v>1225</v>
+        <v>990</v>
       </c>
       <c r="D31" t="s">
         <v>455</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>九棵树,梨园,1225,1号线八通线</v>
+        <v>果园,九棵树,990,1号线八通线</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" t="s">
         <v>372</v>
       </c>
-      <c r="B32" t="s">
-        <v>373</v>
-      </c>
       <c r="C32">
-        <v>1257</v>
+        <v>1225</v>
       </c>
       <c r="D32" t="s">
         <v>455</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>梨园,临河里,1257,1号线八通线</v>
+        <v>九棵树,梨园,1225,1号线八通线</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="s">
         <v>373</v>
       </c>
-      <c r="B33" t="s">
-        <v>374</v>
-      </c>
       <c r="C33">
-        <v>776</v>
+        <v>1257</v>
       </c>
       <c r="D33" t="s">
         <v>455</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>临河里,土桥,776,1号线八通线</v>
+        <v>梨园,临河里,1257,1号线八通线</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B34" t="s">
         <v>374</v>
       </c>
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
       <c r="C34">
-        <v>2238</v>
+        <v>776</v>
       </c>
       <c r="D34" t="s">
         <v>455</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>土桥,花庄,2238,1号线八通线</v>
+        <v>临河里,土桥,776,1号线八通线</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" t="s">
         <v>135</v>
       </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
       <c r="C35">
-        <v>1863</v>
+        <v>2238</v>
       </c>
       <c r="D35" t="s">
         <v>455</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>花庄,环球度假区,1863,1号线八通线</v>
+        <v>土桥,花庄,2238,1号线八通线</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C36">
-        <v>1921</v>
+        <v>1863</v>
       </c>
       <c r="D36" t="s">
         <v>455</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>八角游乐园,古城,1921,1号线八通线</v>
+        <v>花庄,环球度假区,1863,1号线八通线</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="C37">
-        <v>1953</v>
+        <v>2300</v>
       </c>
       <c r="D37" t="s">
         <v>455</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>八宝山,八角游乐园,1953,1号线八通线</v>
+        <f t="shared" ref="E37" si="1">_xlfn.CONCAT(A37,",",B37,",",C37,",",D37)</f>
+        <v>古城,苹果园,2300,1号线八通线</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1479</v>
+        <v>1921</v>
       </c>
       <c r="D38" t="s">
         <v>455</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>玉泉路,八宝山,1479,1号线八通线</v>
+        <v>八角游乐园,古城,1921,1号线八通线</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1810</v>
+        <v>1953</v>
       </c>
       <c r="D39" t="s">
         <v>455</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>五棵松,玉泉路,1810,1号线八通线</v>
+        <v>八宝山,八角游乐园,1953,1号线八通线</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>1778</v>
+        <v>1479</v>
       </c>
       <c r="D40" t="s">
         <v>455</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>万寿路,五棵松,1778,1号线八通线</v>
+        <v>玉泉路,八宝山,1479,1号线八通线</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>1313</v>
+        <v>1810</v>
       </c>
       <c r="D41" t="s">
         <v>455</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>公主坟,万寿路,1313,1号线八通线</v>
+        <v>五棵松,玉泉路,1810,1号线八通线</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>1172</v>
+        <v>1778</v>
       </c>
       <c r="D42" t="s">
         <v>455</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>军事博物馆,公主坟,1172,1号线八通线</v>
+        <v>万寿路,五棵松,1778,1号线八通线</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>1166</v>
+        <v>1313</v>
       </c>
       <c r="D43" t="s">
         <v>455</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>木樨地,军事博物馆,1166,1号线八通线</v>
+        <v>公主坟,万寿路,1313,1号线八通线</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>1291</v>
+        <v>1172</v>
       </c>
       <c r="D44" t="s">
         <v>455</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>南礼士路,木樨地,1291,1号线八通线</v>
+        <v>军事博物馆,公主坟,1172,1号线八通线</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>424</v>
+        <v>1166</v>
       </c>
       <c r="D45" t="s">
         <v>455</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>复兴门,南礼士路,424,1号线八通线</v>
+        <v>木樨地,军事博物馆,1166,1号线八通线</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>1596</v>
+        <v>1291</v>
       </c>
       <c r="D46" t="s">
         <v>455</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>西单,复兴门,1596,1号线八通线</v>
+        <v>南礼士路,木樨地,1291,1号线八通线</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>1217</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s">
         <v>455</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>天安门西,西单,1217,1号线八通线</v>
+        <v>复兴门,南礼士路,424,1号线八通线</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>925</v>
+        <v>1596</v>
       </c>
       <c r="D48" t="s">
         <v>455</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>天安门东,天安门西,925,1号线八通线</v>
+        <v>西单,复兴门,1596,1号线八通线</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>852</v>
+        <v>1217</v>
       </c>
       <c r="D49" t="s">
         <v>455</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>王府井,天安门东,852,1号线八通线</v>
+        <v>天安门西,西单,1217,1号线八通线</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>774</v>
+        <v>925</v>
       </c>
       <c r="D50" t="s">
         <v>455</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>东单,王府井,774,1号线八通线</v>
+        <v>天安门东,天安门西,925,1号线八通线</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>1230</v>
+        <v>852</v>
       </c>
       <c r="D51" t="s">
         <v>455</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>建国门,东单,1230,1号线八通线</v>
+        <v>王府井,天安门东,852,1号线八通线</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>1377</v>
+        <v>774</v>
       </c>
       <c r="D52" t="s">
         <v>455</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>永安里,建国门,1377,1号线八通线</v>
+        <v>东单,王府井,774,1号线八通线</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>790</v>
+        <v>1230</v>
       </c>
       <c r="D53" t="s">
         <v>455</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>国贸,永安里,790,1号线八通线</v>
+        <v>建国门,东单,1230,1号线八通线</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="D54" t="s">
         <v>455</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>大望路,国贸,1385,1号线八通线</v>
+        <v>永安里,建国门,1377,1号线八通线</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>1673</v>
+        <v>790</v>
       </c>
       <c r="D55" t="s">
         <v>455</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>四惠,大望路,1673,1号线八通线</v>
+        <v>国贸,永安里,790,1号线八通线</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>1714</v>
+        <v>1385</v>
       </c>
       <c r="D56" t="s">
         <v>455</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>四惠东,四惠,1714,1号线八通线</v>
+        <v>大望路,国贸,1385,1号线八通线</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>1375</v>
+        <v>1673</v>
       </c>
       <c r="D57" t="s">
         <v>455</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>高碑店,四惠东,1375,1号线八通线</v>
+        <v>四惠,大望路,1673,1号线八通线</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>2002</v>
+        <v>1714</v>
       </c>
       <c r="D58" t="s">
         <v>455</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>传媒大学,高碑店,2002,1号线八通线</v>
+        <v>四惠东,四惠,1714,1号线八通线</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>1894</v>
+        <v>1375</v>
       </c>
       <c r="D59" t="s">
         <v>455</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>双桥,传媒大学,1894,1号线八通线</v>
+        <v>高碑店,四惠东,1375,1号线八通线</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C60">
-        <v>1912</v>
+        <v>2002</v>
       </c>
       <c r="D60" t="s">
         <v>455</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>管庄,双桥,1912,1号线八通线</v>
+        <v>传媒大学,高碑店,2002,1号线八通线</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C61">
-        <v>1763</v>
+        <v>1894</v>
       </c>
       <c r="D61" t="s">
         <v>455</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>八里桥,管庄,1763,1号线八通线</v>
+        <v>双桥,传媒大学,1894,1号线八通线</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C62">
-        <v>1700</v>
+        <v>1912</v>
       </c>
       <c r="D62" t="s">
         <v>455</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>通州北苑,八里桥,1700,1号线八通线</v>
+        <v>管庄,双桥,1912,1号线八通线</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C63">
-        <v>1465</v>
+        <v>1763</v>
       </c>
       <c r="D63" t="s">
         <v>455</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>果园,通州北苑,1465,1号线八通线</v>
+        <v>八里桥,管庄,1763,1号线八通线</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C64">
-        <v>990</v>
+        <v>1700</v>
       </c>
       <c r="D64" t="s">
         <v>455</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>九棵树,果园,990,1号线八通线</v>
+        <v>通州北苑,八里桥,1700,1号线八通线</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C65">
-        <v>1225</v>
+        <v>1465</v>
       </c>
       <c r="D65" t="s">
         <v>455</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ref="E65:E69" si="1">_xlfn.CONCAT(A65,",",B65,",",C65,",",D65)</f>
-        <v>梨园,九棵树,1225,1号线八通线</v>
+        <f t="shared" si="0"/>
+        <v>果园,通州北苑,1465,1号线八通线</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C66">
-        <v>1257</v>
+        <v>990</v>
       </c>
       <c r="D66" t="s">
         <v>455</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v>临河里,梨园,1257,1号线八通线</v>
+        <f t="shared" si="0"/>
+        <v>九棵树,果园,990,1号线八通线</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C67">
-        <v>776</v>
+        <v>1225</v>
       </c>
       <c r="D67" t="s">
         <v>455</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="1"/>
-        <v>土桥,临河里,776,1号线八通线</v>
+        <f t="shared" ref="E67:E71" si="2">_xlfn.CONCAT(A67,",",B67,",",C67,",",D67)</f>
+        <v>梨园,九棵树,1225,1号线八通线</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C68">
-        <v>2238</v>
+        <v>1257</v>
       </c>
       <c r="D68" t="s">
         <v>455</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>花庄,土桥,2238,1号线八通线</v>
+        <f t="shared" si="2"/>
+        <v>临河里,梨园,1257,1号线八通线</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>373</v>
       </c>
       <c r="C69">
-        <v>1863</v>
+        <v>776</v>
       </c>
       <c r="D69" t="s">
         <v>455</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>土桥,临河里,776,1号线八通线</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70">
+        <v>2238</v>
+      </c>
+      <c r="D70" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>花庄,土桥,2238,1号线八通线</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71">
+        <v>1863</v>
+      </c>
+      <c r="D71" t="s">
+        <v>455</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
         <v>环球度假区,花庄,1863,1号线八通线</v>
       </c>
     </row>
@@ -3840,7 +3904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085B354A-C487-40D3-B87B-2CFA4A1871C1}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -5102,7 +5166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947208B1-0DF4-49DF-BB04-59C5DAF6EE8D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -5822,10 +5886,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF47594-485F-4D2D-9A55-43F5C7A2E744}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6824,6 +6888,78 @@
         <v>榆树庄,看丹,1442,16号线</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56">
+        <v>1700</v>
+      </c>
+      <c r="D56" t="s">
+        <v>426</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ref="E56:E59" si="1">_xlfn.CONCAT(A56,",",B56,",",C56,",",D56)</f>
+        <v>榆树庄,洪泰庄,1700,16号线</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>459</v>
+      </c>
+      <c r="B57" t="s">
+        <v>460</v>
+      </c>
+      <c r="C57">
+        <v>1700</v>
+      </c>
+      <c r="D57" t="s">
+        <v>426</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>洪泰庄,榆树庄,1700,16号线</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>459</v>
+      </c>
+      <c r="B58" t="s">
+        <v>461</v>
+      </c>
+      <c r="C58">
+        <v>1700</v>
+      </c>
+      <c r="D58" t="s">
+        <v>426</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>洪泰庄,宛平城,1700,16号线</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" t="s">
+        <v>459</v>
+      </c>
+      <c r="C59">
+        <v>1700</v>
+      </c>
+      <c r="D59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>宛平城,洪泰庄,1700,16号线</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6834,7 +6970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D9EEC-41BF-4E0B-85CF-A84D91B624DA}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -9369,7 +9505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EE3E08-B8B6-4069-9096-C23ECA7F2DE4}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -11356,10 +11492,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF32AE7-C07D-47E8-8B9F-BE1494692B2B}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11855,6 +11991,42 @@
         <v>屈庄,融兴街,801,亦庄T1线</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28">
+        <v>14725</v>
+      </c>
+      <c r="D28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ref="E28:E29" si="1">_xlfn.CONCAT(A28,",",B28,",",C28,",",D28)</f>
+        <v>屈庄,老观里,14725,亦庄T1线</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29">
+        <v>14725</v>
+      </c>
+      <c r="D29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>老观里,屈庄,14725,亦庄T1线</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11863,10 +12035,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345BFAC-2BAA-4AA6-89D8-E64C470B1F4A}">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16503,7 +16675,7 @@
         <v>389</v>
       </c>
       <c r="C386" t="str">
-        <f t="shared" ref="C386:C402" si="6">_xlfn.CONCAT(A386,",",B386)</f>
+        <f t="shared" ref="C386:C405" si="6">_xlfn.CONCAT(A386,",",B386)</f>
         <v>385,屈庄</v>
       </c>
     </row>
@@ -16697,6 +16869,42 @@
       <c r="C402" t="str">
         <f t="shared" si="6"/>
         <v>401,工人体育场</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>459</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="6"/>
+        <v>402,洪泰庄</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>461</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="6"/>
+        <v>403,宛平城</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>462</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="6"/>
+        <v>404,老观里</v>
       </c>
     </row>
   </sheetData>
@@ -16710,7 +16918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF63458B-4D8A-4FD5-A30D-C8F657144B0E}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="E69" sqref="E1:E69"/>
     </sheetView>
   </sheetViews>
@@ -17973,7 +18181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0360DA8-1075-4AA6-BAE8-A34B3FC993C6}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -18803,7 +19011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C677656-C3B0-4683-8430-0B78FE69D483}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -20029,7 +20237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB81D7C-14C4-446A-8238-88A1A92EDD56}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -21111,7 +21319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0530D413-A4F3-4288-AF92-F4431F7CDAB8}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -22807,7 +23015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B2138A-2B53-4721-98BF-7EE494102443}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
